--- a/backend/templates/102-18c-white.xlsx
+++ b/backend/templates/102-18c-white.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837966E-2EF1-4EE3-97F0-232BFF148534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77416E24-0B98-48E6-90B4-D792E7C749D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -794,15 +794,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1398,7 +1389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1418,31 +1409,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1454,10 +1445,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1568,859 +1559,803 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7067,912 +7002,912 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="14" style="58" customWidth="1"/>
-    <col min="4" max="15" width="10.7109375" style="58" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="3" width="14" style="162" customWidth="1"/>
+    <col min="4" max="15" width="10.7109375" style="162" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="162"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="154"/>
+      <c r="O1" s="66"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="155" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="155"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="303" t="s">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="119"/>
-    </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="O3" s="166"/>
+    </row>
+    <row r="4" spans="1:15" s="82" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="297" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="301"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="298"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="61" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="163" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="164"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="165"/>
-    </row>
-    <row r="5" spans="1:15" s="62" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="M4" s="170"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="171"/>
+    </row>
+    <row r="5" spans="1:15" s="82" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="299" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="302"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="64" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="168"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="170" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="171"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="172"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="177"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="176"/>
-    </row>
-    <row r="7" spans="1:15" s="65" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="149" t="s">
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="181"/>
+    </row>
+    <row r="7" spans="1:15" s="188" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A7" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="149" t="s">
+      <c r="E7" s="185"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="140" t="s">
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="149" t="s">
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="150"/>
-      <c r="O7" s="151"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="187"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="139"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="200"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="132"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="210"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="139"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="200"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="139"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="200"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="132"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="210"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="139"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="200"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="139"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="200"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="139"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="200"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="132"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="210"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="139"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="200"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="139"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="200"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="132"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="210"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="139"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="199"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="200"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="139"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="200"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="132"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="210"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="139"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="200"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="139"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="200"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="132"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="208"/>
+      <c r="L25" s="209"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="210"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="139"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="200"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="139"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="199"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="192"/>
+      <c r="O27" s="200"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="139"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="200"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="132"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="209"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="202"/>
+      <c r="O29" s="210"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="139"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="192"/>
+      <c r="O30" s="200"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="139"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="192"/>
+      <c r="O31" s="200"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="132"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="201"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="210"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="139"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="199"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="200"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="139"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="200"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="132"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="207"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="209"/>
+      <c r="M35" s="201"/>
+      <c r="N35" s="202"/>
+      <c r="O35" s="210"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="139"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="199"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="192"/>
+      <c r="O36" s="200"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="182"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="186"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="187"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="217"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="220"/>
+      <c r="K37" s="221"/>
+      <c r="L37" s="222"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="223"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73" t="s">
+      <c r="A38" s="120"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="141" t="e">
+      <c r="D38" s="224" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="188" t="e">
+      <c r="E38" s="225"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="227" t="e">
         <f>AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="189"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191" t="e">
+      <c r="H38" s="228"/>
+      <c r="I38" s="229"/>
+      <c r="J38" s="230" t="e">
         <f>AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="191"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="141" t="e">
+      <c r="K38" s="230"/>
+      <c r="L38" s="230"/>
+      <c r="M38" s="224" t="e">
         <f>AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="142"/>
-      <c r="O38" s="192"/>
+      <c r="N38" s="225"/>
+      <c r="O38" s="231"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76" t="s">
+      <c r="A39" s="130"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="232">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="198"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="200">
+      <c r="E39" s="233"/>
+      <c r="F39" s="234"/>
+      <c r="G39" s="235">
         <f>MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="201"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="203">
+      <c r="H39" s="236"/>
+      <c r="I39" s="237"/>
+      <c r="J39" s="238">
         <f>MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="203"/>
-      <c r="L39" s="203"/>
-      <c r="M39" s="197">
+      <c r="K39" s="238"/>
+      <c r="L39" s="238"/>
+      <c r="M39" s="232">
         <f>MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="198"/>
-      <c r="O39" s="212"/>
+      <c r="N39" s="233"/>
+      <c r="O39" s="239"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="204">
+      <c r="D40" s="240">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="205"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="207">
+      <c r="E40" s="241"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="243">
         <f>MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="208"/>
-      <c r="I40" s="209"/>
-      <c r="J40" s="210">
+      <c r="H40" s="244"/>
+      <c r="I40" s="245"/>
+      <c r="J40" s="246">
         <f>MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="204">
+      <c r="K40" s="246"/>
+      <c r="L40" s="246"/>
+      <c r="M40" s="240">
         <f>MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="205"/>
-      <c r="O40" s="211"/>
-    </row>
-    <row r="41" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A41" s="80" t="s">
+      <c r="N40" s="241"/>
+      <c r="O40" s="247"/>
+    </row>
+    <row r="41" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A41" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="193"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="194" t="s">
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="194"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="195" t="s">
+      <c r="E41" s="151"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="195"/>
-      <c r="L41" s="196"/>
-      <c r="M41" s="196"/>
-      <c r="N41" s="196"/>
-      <c r="O41" s="83" t="s">
+      <c r="K41" s="248"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="80"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="178"/>
-      <c r="M42" s="178"/>
-      <c r="N42" s="178"/>
-      <c r="O42" s="83"/>
-    </row>
-    <row r="43" spans="1:15" s="85" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="179" t="s">
+    <row r="42" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="149"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="159"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="159"/>
+      <c r="O42" s="71"/>
+    </row>
+    <row r="43" spans="1:15" s="129" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="80" t="s">
+      <c r="B43" s="160"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="179" t="s">
+      <c r="G43" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="179"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="179"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-    </row>
-    <row r="44" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="179" t="s">
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="153"/>
+    </row>
+    <row r="44" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="180" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="N44" s="180"/>
-      <c r="O44" s="82"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="153"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="249" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="13:14" ht="15.75" customHeight="1">
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
+      <c r="M51" s="250"/>
+      <c r="N51" s="250"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="152"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="65"/>
-      <c r="I75" s="152"/>
-      <c r="J75" s="152"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="152"/>
-      <c r="M75" s="152"/>
-      <c r="N75" s="152"/>
-      <c r="O75" s="152"/>
+      <c r="C75" s="251"/>
+      <c r="D75" s="251"/>
+      <c r="E75" s="188"/>
+      <c r="I75" s="251"/>
+      <c r="J75" s="251"/>
+      <c r="K75" s="188"/>
+      <c r="L75" s="251"/>
+      <c r="M75" s="251"/>
+      <c r="N75" s="251"/>
+      <c r="O75" s="251"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="152"/>
-      <c r="D76" s="152"/>
-      <c r="E76" s="152"/>
-      <c r="F76" s="152"/>
-      <c r="I76" s="152"/>
-      <c r="J76" s="152"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="152"/>
-      <c r="M76" s="152"/>
-      <c r="N76" s="152"/>
-      <c r="O76" s="152"/>
+      <c r="C76" s="251"/>
+      <c r="D76" s="251"/>
+      <c r="E76" s="251"/>
+      <c r="F76" s="251"/>
+      <c r="I76" s="251"/>
+      <c r="J76" s="251"/>
+      <c r="K76" s="188"/>
+      <c r="L76" s="251"/>
+      <c r="M76" s="251"/>
+      <c r="N76" s="251"/>
+      <c r="O76" s="251"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="65"/>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="152"/>
-      <c r="M77" s="152"/>
-      <c r="N77" s="152"/>
-      <c r="O77" s="152"/>
+      <c r="C77" s="251"/>
+      <c r="D77" s="251"/>
+      <c r="E77" s="188"/>
+      <c r="I77" s="251"/>
+      <c r="J77" s="251"/>
+      <c r="K77" s="188"/>
+      <c r="L77" s="251"/>
+      <c r="M77" s="251"/>
+      <c r="N77" s="251"/>
+      <c r="O77" s="251"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="152"/>
-      <c r="D78" s="152"/>
-      <c r="E78" s="65"/>
+      <c r="C78" s="251"/>
+      <c r="D78" s="251"/>
+      <c r="E78" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="178">
@@ -7985,6 +7920,21 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="L42:N42"/>
     <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="G33:I33"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="G43:J43"/>
@@ -8006,21 +7956,7 @@
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="M39:O39"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="G30:I30"/>
@@ -8037,6 +7973,11 @@
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="G14:I14"/>
@@ -8093,8 +8034,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="D37:F37"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D34:F34"/>
@@ -8104,8 +8043,9 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J22:L22"/>
     <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -8130,11 +8070,6 @@
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D18:F18"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D8:F8"/>
@@ -8198,1178 +8133,1472 @@
   </sheetPr>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="14" style="104" customWidth="1"/>
-    <col min="4" max="15" width="14.28515625" style="104" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="104"/>
+    <col min="1" max="3" width="14" style="116" customWidth="1"/>
+    <col min="4" max="15" width="14.28515625" style="116" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:15" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="154" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="154"/>
-    </row>
-    <row r="2" spans="1:15" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="155" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="155"/>
-    </row>
-    <row r="3" spans="1:15" s="89" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="59" t="s">
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" s="67" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="83"/>
-    </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="90" t="s">
+      <c r="O3" s="71"/>
+    </row>
+    <row r="4" spans="1:15" s="82" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="223" t="s">
+      <c r="B4" s="73">
+        <f>Page1!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="91" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="77">
+        <f>Page1!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="235" t="s">
+      <c r="J4" s="77">
+        <f>Page1!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="77"/>
+      <c r="L4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="236"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="225"/>
-    </row>
-    <row r="5" spans="1:15" s="62" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="M4" s="80"/>
+      <c r="N4" s="73">
+        <f>Page1!N4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="81"/>
+    </row>
+    <row r="5" spans="1:15" s="82" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="226"/>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="228" t="s">
+      <c r="B5" s="84">
+        <f>Page1!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="228"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="93" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="84">
+        <f>Page1!F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="237" t="s">
+      <c r="J5" s="84">
+        <f>Page1!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="84"/>
+      <c r="L5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="238"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="227"/>
-    </row>
-    <row r="6" spans="1:15" s="88" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="257" t="s">
+      <c r="M5" s="88"/>
+      <c r="N5" s="89">
+        <f>Page1!N5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="90"/>
+    </row>
+    <row r="6" spans="1:15" s="94" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="259"/>
-    </row>
-    <row r="7" spans="1:15" s="88" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="215" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="93"/>
+    </row>
+    <row r="7" spans="1:15" s="94" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216" t="s">
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="216" t="s">
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="219"/>
-    </row>
-    <row r="8" spans="1:15" s="88" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="256"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="94">
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="102"/>
+    </row>
+    <row r="8" spans="1:15" s="94" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>1</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="106">
         <v>2</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="106">
         <v>3</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="107">
         <v>1</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="106">
         <v>2</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="106">
         <v>3</v>
       </c>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="106">
         <v>1</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="106">
         <v>2</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="106">
         <v>3</v>
       </c>
-      <c r="O8" s="95" t="s">
+      <c r="O8" s="108" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100" t="e">
+      <c r="A9" s="109">
+        <f>Page1!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="110">
+        <f>Page1!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="110">
+        <f>Page1!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112" t="e">
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="102" t="e">
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="103" t="e">
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="115" t="e">
         <f>AVERAGE(L9:N9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100" t="e">
+      <c r="A10" s="117">
+        <f>Page1!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="118">
+        <f>Page1!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="119">
+        <f>Page1!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112" t="e">
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102" t="e">
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114" t="e">
         <f t="shared" ref="K10:K38" si="1">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="103" t="e">
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="115" t="e">
         <f t="shared" ref="O10:O38" si="2">AVERAGE(L10:N10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100" t="e">
+      <c r="A11" s="117">
+        <f>Page1!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="118">
+        <f>Page1!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="119">
+        <f>Page1!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102" t="e">
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="103" t="e">
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100" t="e">
+      <c r="A12" s="117">
+        <f>Page1!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="118">
+        <f>Page1!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="119">
+        <f>Page1!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102" t="e">
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="103" t="e">
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100" t="e">
+      <c r="A13" s="117">
+        <f>Page1!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="118">
+        <f>Page1!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="119">
+        <f>Page1!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102" t="e">
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="103" t="e">
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100" t="e">
+      <c r="A14" s="117">
+        <f>Page1!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="118">
+        <f>Page1!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="119">
+        <f>Page1!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102" t="e">
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="103" t="e">
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100" t="e">
+      <c r="A15" s="117">
+        <f>Page1!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="118">
+        <f>Page1!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="119">
+        <f>Page1!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102" t="e">
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="103" t="e">
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100" t="e">
+      <c r="A16" s="117">
+        <f>Page1!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="118">
+        <f>Page1!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="119">
+        <f>Page1!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102" t="e">
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="103" t="e">
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100" t="e">
+      <c r="A17" s="117">
+        <f>Page1!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="118">
+        <f>Page1!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="119">
+        <f>Page1!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102" t="e">
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="103" t="e">
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100" t="e">
+      <c r="A18" s="117">
+        <f>Page1!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="118">
+        <f>Page1!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="119">
+        <f>Page1!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102" t="e">
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="103" t="e">
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100" t="e">
+      <c r="A19" s="117">
+        <f>Page1!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="118">
+        <f>Page1!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="119">
+        <f>Page1!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102" t="e">
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="103" t="e">
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100" t="e">
+      <c r="A20" s="117">
+        <f>Page1!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="118">
+        <f>Page1!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="119">
+        <f>Page1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102" t="e">
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="103" t="e">
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100" t="e">
+      <c r="A21" s="117">
+        <f>Page1!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="118">
+        <f>Page1!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="119">
+        <f>Page1!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102" t="e">
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="103" t="e">
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100" t="e">
+      <c r="A22" s="117">
+        <f>Page1!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="118">
+        <f>Page1!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="119">
+        <f>Page1!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102" t="e">
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="103" t="e">
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100" t="e">
+      <c r="A23" s="117">
+        <f>Page1!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="118">
+        <f>Page1!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="119">
+        <f>Page1!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102" t="e">
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="103" t="e">
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100" t="e">
+      <c r="A24" s="117">
+        <f>Page1!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="118">
+        <f>Page1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="119">
+        <f>Page1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102" t="e">
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="103" t="e">
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100" t="e">
+      <c r="A25" s="117">
+        <f>Page1!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="118">
+        <f>Page1!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="119">
+        <f>Page1!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102" t="e">
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="103" t="e">
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100" t="e">
+      <c r="A26" s="117">
+        <f>Page1!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="118">
+        <f>Page1!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="119">
+        <f>Page1!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102" t="e">
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="103" t="e">
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100" t="e">
+      <c r="A27" s="117">
+        <f>Page1!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="118">
+        <f>Page1!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="119">
+        <f>Page1!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102" t="e">
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="103" t="e">
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100" t="e">
+      <c r="A28" s="117">
+        <f>Page1!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="118">
+        <f>Page1!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="119">
+        <f>Page1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102" t="e">
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="103" t="e">
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100" t="e">
+      <c r="A29" s="117">
+        <f>Page1!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="118">
+        <f>Page1!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="119">
+        <f>Page1!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102" t="e">
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="103" t="e">
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100" t="e">
+      <c r="A30" s="117">
+        <f>Page1!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="118">
+        <f>Page1!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="119">
+        <f>Page1!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="102" t="e">
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="103" t="e">
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100" t="e">
+      <c r="A31" s="117">
+        <f>Page1!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="118">
+        <f>Page1!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="119">
+        <f>Page1!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="102" t="e">
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="103" t="e">
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100" t="e">
+      <c r="A32" s="117">
+        <f>Page1!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="118">
+        <f>Page1!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="119">
+        <f>Page1!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="102" t="e">
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="103" t="e">
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100" t="e">
+      <c r="A33" s="117">
+        <f>Page1!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="118">
+        <f>Page1!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="119">
+        <f>Page1!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="102" t="e">
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="103" t="e">
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="100" t="e">
+      <c r="A34" s="117">
+        <f>Page1!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="118">
+        <f>Page1!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="119">
+        <f>Page1!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="102" t="e">
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="103" t="e">
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100" t="e">
+      <c r="A35" s="117">
+        <f>Page1!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="118">
+        <f>Page1!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="119">
+        <f>Page1!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="102" t="e">
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="103" t="e">
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100" t="e">
+      <c r="A36" s="117">
+        <f>Page1!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="118">
+        <f>Page1!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="119">
+        <f>Page1!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="102" t="e">
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="103" t="e">
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100" t="e">
+      <c r="A37" s="117">
+        <f>Page1!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="118">
+        <f>Page1!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="119">
+        <f>Page1!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="102" t="e">
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="103" t="e">
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100" t="e">
+      <c r="A38" s="117">
+        <f>Page1!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="118">
+        <f>Page1!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="119">
+        <f>Page1!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="102" t="e">
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="103" t="e">
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="85" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73" t="s">
+    <row r="39" spans="1:15" s="129" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A39" s="120"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="239" t="e">
+      <c r="D39" s="122" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="229" t="e">
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="125" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
-      <c r="K39" s="248"/>
-      <c r="L39" s="229" t="e">
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="125" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="230"/>
-      <c r="N39" s="230"/>
-      <c r="O39" s="231"/>
-    </row>
-    <row r="40" spans="1:15" s="85" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76" t="s">
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="128"/>
+    </row>
+    <row r="40" spans="1:15" s="129" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A40" s="130"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="242" t="e">
+      <c r="D40" s="132" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="243"/>
-      <c r="F40" s="243"/>
-      <c r="G40" s="244"/>
-      <c r="H40" s="249" t="e">
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="135" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="250"/>
-      <c r="J40" s="250"/>
-      <c r="K40" s="251"/>
-      <c r="L40" s="249" t="e">
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="135" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="250"/>
-      <c r="N40" s="250"/>
-      <c r="O40" s="252"/>
-    </row>
-    <row r="41" spans="1:15" s="85" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79" t="s">
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="138"/>
+    </row>
+    <row r="41" spans="1:15" s="129" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A41" s="139"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="245" t="e">
+      <c r="D41" s="142" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="232" t="e">
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="145" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="233"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="253"/>
-      <c r="L41" s="232" t="e">
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="145" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="233"/>
-      <c r="N41" s="233"/>
-      <c r="O41" s="234"/>
-    </row>
-    <row r="42" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="80" t="s">
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="148"/>
+    </row>
+    <row r="42" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="194" t="s">
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="194"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="305"/>
-      <c r="K42" s="305"/>
-      <c r="L42" s="305" t="s">
+      <c r="E42" s="151"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
-      <c r="O42" s="83" t="s">
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="304"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="83"/>
-    </row>
-    <row r="44" spans="1:15" s="85" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="179" t="s">
+    <row r="43" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="149"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="159"/>
+      <c r="O43" s="71"/>
+    </row>
+    <row r="44" spans="1:15" s="129" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="80" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="179" t="s">
+      <c r="G44" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-    </row>
-    <row r="45" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="179" t="s">
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="153"/>
+    </row>
+    <row r="45" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="179"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="180" t="s">
+      <c r="B45" s="160"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="N45" s="180"/>
-      <c r="O45" s="82"/>
-    </row>
-    <row r="55" s="104" customFormat="1"/>
-    <row r="56" s="104" customFormat="1"/>
-    <row r="57" s="104" customFormat="1"/>
-    <row r="58" s="104" customFormat="1"/>
-    <row r="59" s="104" customFormat="1"/>
-    <row r="60" s="104" customFormat="1"/>
-    <row r="61" s="104" customFormat="1"/>
-    <row r="62" s="104" customFormat="1"/>
-    <row r="63" s="104" customFormat="1"/>
-    <row r="64" s="104" customFormat="1"/>
-    <row r="65" s="104" customFormat="1"/>
-    <row r="66" s="104" customFormat="1"/>
-    <row r="67" s="104" customFormat="1"/>
-    <row r="68" s="104" customFormat="1"/>
-    <row r="69" s="104" customFormat="1"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="153"/>
+    </row>
+    <row r="55" s="116" customFormat="1"/>
+    <row r="56" s="116" customFormat="1"/>
+    <row r="57" s="116" customFormat="1"/>
+    <row r="58" s="116" customFormat="1"/>
+    <row r="59" s="116" customFormat="1"/>
+    <row r="60" s="116" customFormat="1"/>
+    <row r="61" s="116" customFormat="1"/>
+    <row r="62" s="116" customFormat="1"/>
+    <row r="63" s="116" customFormat="1"/>
+    <row r="64" s="116" customFormat="1"/>
+    <row r="65" s="116" customFormat="1"/>
+    <row r="66" s="116" customFormat="1"/>
+    <row r="67" s="116" customFormat="1"/>
+    <row r="68" s="116" customFormat="1"/>
+    <row r="69" s="116" customFormat="1"/>
   </sheetData>
   <mergeCells count="40">
     <mergeCell ref="L4:M4"/>
@@ -9442,1181 +9671,1475 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="14" style="104" customWidth="1"/>
-    <col min="4" max="15" width="14.28515625" style="104" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="104"/>
+    <col min="1" max="3" width="14" style="116" customWidth="1"/>
+    <col min="4" max="15" width="14.28515625" style="116" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:17" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="154" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="154"/>
-    </row>
-    <row r="2" spans="1:17" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:17" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="155" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="155"/>
-    </row>
-    <row r="3" spans="1:17" s="89" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="59" t="s">
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:17" s="67" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="83"/>
-    </row>
-    <row r="4" spans="1:17" s="62" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="90" t="s">
+      <c r="O3" s="71"/>
+    </row>
+    <row r="4" spans="1:17" s="82" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="223" t="s">
+      <c r="B4" s="73">
+        <f>Page1!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="91" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="77">
+        <f>Page1!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="235" t="s">
+      <c r="J4" s="77">
+        <f>Page1!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="77"/>
+      <c r="L4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="236"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="225"/>
-    </row>
-    <row r="5" spans="1:17" s="62" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="M4" s="80"/>
+      <c r="N4" s="73">
+        <f>Page1!N4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" s="82" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="226"/>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="228" t="s">
+      <c r="B5" s="84">
+        <f>Page1!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="228"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="93" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="84">
+        <f>Page1!F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="237" t="s">
+      <c r="J5" s="84">
+        <f>Page1!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="84"/>
+      <c r="L5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="238"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="227"/>
-    </row>
-    <row r="6" spans="1:17" s="88" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="257" t="s">
+      <c r="M5" s="88"/>
+      <c r="N5" s="89">
+        <f>Page1!N5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="90"/>
+    </row>
+    <row r="6" spans="1:17" s="94" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="259"/>
-    </row>
-    <row r="7" spans="1:17" s="88" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="215" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="93"/>
+    </row>
+    <row r="7" spans="1:17" s="94" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216" t="s">
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="260" t="s">
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="262"/>
-    </row>
-    <row r="8" spans="1:17" s="88" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="256"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="94">
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="254"/>
+    </row>
+    <row r="8" spans="1:17" s="94" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>1</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="106">
         <v>2</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="106">
         <v>3</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="107">
         <v>1</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="106">
         <v>2</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="106">
         <v>3</v>
       </c>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="106">
         <v>1</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="106">
         <v>2</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="106">
         <v>3</v>
       </c>
-      <c r="O8" s="95" t="s">
+      <c r="O8" s="108" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100" t="e">
+      <c r="A9" s="109">
+        <f>Page1!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="110">
+        <f>Page1!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="110">
+        <f>Page1!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112" t="e">
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="102" t="e">
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="103" t="e">
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="115" t="e">
         <f>AVERAGE(L9:N9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100" t="e">
+      <c r="A10" s="117">
+        <f>Page1!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="118">
+        <f>Page1!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="119">
+        <f>Page1!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112" t="e">
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102" t="e">
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114" t="e">
         <f t="shared" ref="K10:K38" si="1">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="103" t="e">
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="115" t="e">
         <f t="shared" ref="O10:O38" si="2">AVERAGE(L10:N10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="104" t="s">
+      <c r="Q10" s="116" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100" t="e">
+      <c r="A11" s="117">
+        <f>Page1!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="118">
+        <f>Page1!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="119">
+        <f>Page1!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102" t="e">
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="103" t="e">
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100" t="e">
+      <c r="A12" s="117">
+        <f>Page1!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="118">
+        <f>Page1!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="119">
+        <f>Page1!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102" t="e">
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="103" t="e">
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100" t="e">
+      <c r="A13" s="117">
+        <f>Page1!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="118">
+        <f>Page1!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="119">
+        <f>Page1!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102" t="e">
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="103" t="e">
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100" t="e">
+      <c r="A14" s="117">
+        <f>Page1!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="118">
+        <f>Page1!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="119">
+        <f>Page1!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102" t="e">
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="103" t="e">
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100" t="e">
+      <c r="A15" s="117">
+        <f>Page1!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="118">
+        <f>Page1!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="119">
+        <f>Page1!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102" t="e">
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="103" t="e">
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100" t="e">
+      <c r="A16" s="117">
+        <f>Page1!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="118">
+        <f>Page1!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="119">
+        <f>Page1!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102" t="e">
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="103" t="e">
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100" t="e">
+      <c r="A17" s="117">
+        <f>Page1!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="118">
+        <f>Page1!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="119">
+        <f>Page1!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102" t="e">
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="103" t="e">
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100" t="e">
+      <c r="A18" s="117">
+        <f>Page1!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="118">
+        <f>Page1!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="119">
+        <f>Page1!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102" t="e">
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="103" t="e">
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100" t="e">
+      <c r="A19" s="117">
+        <f>Page1!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="118">
+        <f>Page1!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="119">
+        <f>Page1!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102" t="e">
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="103" t="e">
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100" t="e">
+      <c r="A20" s="117">
+        <f>Page1!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="118">
+        <f>Page1!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="119">
+        <f>Page1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102" t="e">
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="103" t="e">
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100" t="e">
+      <c r="A21" s="117">
+        <f>Page1!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="118">
+        <f>Page1!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="119">
+        <f>Page1!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102" t="e">
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="103" t="e">
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100" t="e">
+      <c r="A22" s="117">
+        <f>Page1!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="118">
+        <f>Page1!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="119">
+        <f>Page1!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102" t="e">
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="103" t="e">
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100" t="e">
+      <c r="A23" s="117">
+        <f>Page1!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="118">
+        <f>Page1!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="119">
+        <f>Page1!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102" t="e">
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="103" t="e">
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100" t="e">
+      <c r="A24" s="117">
+        <f>Page1!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="118">
+        <f>Page1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="119">
+        <f>Page1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102" t="e">
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="103" t="e">
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100" t="e">
+      <c r="A25" s="117">
+        <f>Page1!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="118">
+        <f>Page1!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="119">
+        <f>Page1!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102" t="e">
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="103" t="e">
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100" t="e">
+      <c r="A26" s="117">
+        <f>Page1!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="118">
+        <f>Page1!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="119">
+        <f>Page1!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102" t="e">
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="103" t="e">
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100" t="e">
+      <c r="A27" s="117">
+        <f>Page1!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="118">
+        <f>Page1!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="119">
+        <f>Page1!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102" t="e">
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="103" t="e">
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100" t="e">
+      <c r="A28" s="117">
+        <f>Page1!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="118">
+        <f>Page1!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="119">
+        <f>Page1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102" t="e">
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="103" t="e">
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100" t="e">
+      <c r="A29" s="117">
+        <f>Page1!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="118">
+        <f>Page1!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="119">
+        <f>Page1!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102" t="e">
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="103" t="e">
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100" t="e">
+      <c r="A30" s="117">
+        <f>Page1!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="118">
+        <f>Page1!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="119">
+        <f>Page1!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="102" t="e">
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="103" t="e">
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100" t="e">
+      <c r="A31" s="117">
+        <f>Page1!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="118">
+        <f>Page1!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="119">
+        <f>Page1!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="102" t="e">
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="103" t="e">
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100" t="e">
+      <c r="A32" s="117">
+        <f>Page1!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="118">
+        <f>Page1!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="119">
+        <f>Page1!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="102" t="e">
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="103" t="e">
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100" t="e">
+      <c r="A33" s="117">
+        <f>Page1!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="118">
+        <f>Page1!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="119">
+        <f>Page1!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="102" t="e">
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="103" t="e">
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="100" t="e">
+      <c r="A34" s="117">
+        <f>Page1!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="118">
+        <f>Page1!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="119">
+        <f>Page1!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="102" t="e">
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="103" t="e">
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100" t="e">
+      <c r="A35" s="117">
+        <f>Page1!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="118">
+        <f>Page1!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="119">
+        <f>Page1!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="102" t="e">
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="103" t="e">
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100" t="e">
+      <c r="A36" s="117">
+        <f>Page1!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="118">
+        <f>Page1!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="119">
+        <f>Page1!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="102" t="e">
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="103" t="e">
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100" t="e">
+      <c r="A37" s="117">
+        <f>Page1!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="118">
+        <f>Page1!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="119">
+        <f>Page1!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="102" t="e">
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="103" t="e">
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100" t="e">
+      <c r="A38" s="117">
+        <f>Page1!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="118">
+        <f>Page1!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="119">
+        <f>Page1!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="102" t="e">
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="103" t="e">
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="85" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73" t="s">
+    <row r="39" spans="1:15" s="129" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="120"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="239" t="e">
+      <c r="D39" s="122" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="229" t="e">
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="125" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
-      <c r="K39" s="248"/>
-      <c r="L39" s="229" t="e">
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="125" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="230"/>
-      <c r="N39" s="230"/>
-      <c r="O39" s="231"/>
-    </row>
-    <row r="40" spans="1:15" s="85" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76" t="s">
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="128"/>
+    </row>
+    <row r="40" spans="1:15" s="129" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A40" s="130"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="242" t="e">
+      <c r="D40" s="132" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="243"/>
-      <c r="F40" s="243"/>
-      <c r="G40" s="244"/>
-      <c r="H40" s="249" t="e">
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="135" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="250"/>
-      <c r="J40" s="250"/>
-      <c r="K40" s="251"/>
-      <c r="L40" s="249" t="e">
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="135" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="250"/>
-      <c r="N40" s="250"/>
-      <c r="O40" s="252"/>
-    </row>
-    <row r="41" spans="1:15" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79" t="s">
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="138"/>
+    </row>
+    <row r="41" spans="1:15" s="129" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A41" s="139"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="245" t="e">
+      <c r="D41" s="142" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="232" t="e">
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="145" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="233"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="253"/>
-      <c r="L41" s="232" t="e">
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="145" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="233"/>
-      <c r="N41" s="233"/>
-      <c r="O41" s="234"/>
-    </row>
-    <row r="42" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="80" t="s">
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="148"/>
+    </row>
+    <row r="42" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="194" t="s">
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="194"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="305"/>
-      <c r="K42" s="305"/>
-      <c r="L42" s="305" t="s">
+      <c r="E42" s="151"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
-      <c r="O42" s="83" t="s">
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="304"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="83"/>
-    </row>
-    <row r="44" spans="1:15" s="85" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="179" t="s">
+    <row r="43" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="149"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="159"/>
+      <c r="O43" s="71"/>
+    </row>
+    <row r="44" spans="1:15" s="129" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="80" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="179" t="s">
+      <c r="G44" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-    </row>
-    <row r="45" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="179" t="s">
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="153"/>
+    </row>
+    <row r="45" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="179"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="180" t="s">
+      <c r="B45" s="160"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="N45" s="180"/>
-      <c r="O45" s="82"/>
-    </row>
-    <row r="46" spans="1:15" s="84" customFormat="1" ht="15">
-      <c r="A46" s="179"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="180"/>
-      <c r="N46" s="180"/>
-      <c r="O46" s="82"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="153"/>
+    </row>
+    <row r="46" spans="1:15" s="156" customFormat="1" ht="15">
+      <c r="A46" s="160"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -10691,873 +11214,1167 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="14" style="104" customWidth="1"/>
-    <col min="4" max="15" width="14.28515625" style="104" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="104"/>
+    <col min="1" max="3" width="14" style="116" customWidth="1"/>
+    <col min="4" max="15" width="14.28515625" style="116" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:15" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="154" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="154"/>
-    </row>
-    <row r="2" spans="1:15" s="89" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="155" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="155"/>
-    </row>
-    <row r="3" spans="1:15" s="89" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="59" t="s">
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" s="67" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="83"/>
-    </row>
-    <row r="4" spans="1:15" s="84" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="107" t="s">
+      <c r="O3" s="71"/>
+    </row>
+    <row r="4" spans="1:15" s="156" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="235" t="s">
+      <c r="B4" s="73">
+        <f>Page1!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="108" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="77">
+        <f>Page1!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="235"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="220" t="s">
+      <c r="J4" s="77">
+        <f>Page1!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="77"/>
+      <c r="L4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="222"/>
-      <c r="N4" s="264"/>
-      <c r="O4" s="265"/>
-    </row>
-    <row r="5" spans="1:15" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="M4" s="80"/>
+      <c r="N4" s="73">
+        <f>Page1!N4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="81"/>
+    </row>
+    <row r="5" spans="1:15" s="188" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="237" t="s">
+      <c r="B5" s="84">
+        <f>Page1!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="238"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="110" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="84">
+        <f>Page1!F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="237"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="168" t="s">
+      <c r="J5" s="84">
+        <f>Page1!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="84"/>
+      <c r="L5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="169"/>
-      <c r="N5" s="271"/>
-      <c r="O5" s="272"/>
-    </row>
-    <row r="6" spans="1:15" s="85" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="273" t="s">
+      <c r="M5" s="88"/>
+      <c r="N5" s="89">
+        <f>Page1!N5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="90"/>
+    </row>
+    <row r="6" spans="1:15" s="129" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="274"/>
-      <c r="C6" s="275"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="276"/>
-      <c r="M6" s="274"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="277"/>
-    </row>
-    <row r="7" spans="1:15" s="85" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="279"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="281" t="s">
+      <c r="B6" s="258"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="260"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="261"/>
+    </row>
+    <row r="7" spans="1:15" s="129" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A7" s="262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="263"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281" t="s">
+      <c r="E7" s="264"/>
+      <c r="F7" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="280"/>
-      <c r="H7" s="281" t="s">
+      <c r="G7" s="264"/>
+      <c r="H7" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="280"/>
-      <c r="J7" s="282" t="s">
+      <c r="I7" s="264"/>
+      <c r="J7" s="266" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="283"/>
-      <c r="L7" s="220" t="s">
+      <c r="K7" s="267"/>
+      <c r="L7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="221"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="225"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="256"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="111">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="268"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="270">
         <v>1</v>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="270">
         <v>2</v>
       </c>
-      <c r="N8" s="111">
+      <c r="N8" s="270">
         <v>3</v>
       </c>
-      <c r="O8" s="112" t="s">
+      <c r="O8" s="271" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="113" t="e">
+      <c r="A9" s="109">
+        <f>Page1!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="110">
+        <f>Page1!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="110">
+        <f>Page1!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="272"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="277" t="e">
         <f>AVERAGE(L9:N9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="113" t="e">
+      <c r="A10" s="117">
+        <f>Page1!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="118">
+        <f>Page1!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="119">
+        <f>Page1!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="197"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="277" t="e">
         <f t="shared" ref="O10:O38" si="0">AVERAGE(L10:N10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="113" t="e">
+      <c r="A11" s="117">
+        <f>Page1!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="118">
+        <f>Page1!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="119">
+        <f>Page1!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="197"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="113" t="e">
+      <c r="A12" s="117">
+        <f>Page1!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="118">
+        <f>Page1!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="119">
+        <f>Page1!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="197"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="278"/>
+      <c r="M12" s="279"/>
+      <c r="N12" s="279"/>
+      <c r="O12" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="113" t="e">
+      <c r="A13" s="117">
+        <f>Page1!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="118">
+        <f>Page1!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="119">
+        <f>Page1!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="197"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="113" t="e">
+      <c r="A14" s="117">
+        <f>Page1!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="118">
+        <f>Page1!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="119">
+        <f>Page1!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="197"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="113" t="e">
+      <c r="A15" s="117">
+        <f>Page1!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="118">
+        <f>Page1!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="119">
+        <f>Page1!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="197"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="276"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="113" t="e">
+      <c r="A16" s="117">
+        <f>Page1!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="118">
+        <f>Page1!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="119">
+        <f>Page1!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="197"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="276"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="113" t="e">
+      <c r="A17" s="117">
+        <f>Page1!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="118">
+        <f>Page1!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="119">
+        <f>Page1!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="197"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="113" t="e">
+      <c r="A18" s="117">
+        <f>Page1!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="118">
+        <f>Page1!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="119">
+        <f>Page1!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="197"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="276"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="113" t="e">
+      <c r="A19" s="117">
+        <f>Page1!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="118">
+        <f>Page1!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="119">
+        <f>Page1!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="197"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="113" t="e">
+      <c r="A20" s="117">
+        <f>Page1!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="118">
+        <f>Page1!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="119">
+        <f>Page1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="197"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="276"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="113" t="e">
+      <c r="A21" s="117">
+        <f>Page1!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="118">
+        <f>Page1!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="119">
+        <f>Page1!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="197"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="276"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="113" t="e">
+      <c r="A22" s="117">
+        <f>Page1!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="118">
+        <f>Page1!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="119">
+        <f>Page1!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="197"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="276"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="113" t="e">
+      <c r="A23" s="117">
+        <f>Page1!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="118">
+        <f>Page1!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="119">
+        <f>Page1!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="197"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="113" t="e">
+      <c r="A24" s="117">
+        <f>Page1!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="118">
+        <f>Page1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="119">
+        <f>Page1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="197"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="276"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="113" t="e">
+      <c r="A25" s="117">
+        <f>Page1!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="118">
+        <f>Page1!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="119">
+        <f>Page1!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="197"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="278"/>
+      <c r="M25" s="279"/>
+      <c r="N25" s="279"/>
+      <c r="O25" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="113" t="e">
+      <c r="A26" s="117">
+        <f>Page1!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="118">
+        <f>Page1!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="119">
+        <f>Page1!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="197"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="276"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="113" t="e">
+      <c r="A27" s="117">
+        <f>Page1!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="118">
+        <f>Page1!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="119">
+        <f>Page1!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="197"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="113" t="e">
+      <c r="A28" s="117">
+        <f>Page1!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="118">
+        <f>Page1!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="119">
+        <f>Page1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="197"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="276"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="113" t="e">
+      <c r="A29" s="117">
+        <f>Page1!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="118">
+        <f>Page1!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="119">
+        <f>Page1!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="197"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="193"/>
+      <c r="L29" s="276"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="113" t="e">
+      <c r="A30" s="117">
+        <f>Page1!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="118">
+        <f>Page1!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="119">
+        <f>Page1!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="197"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="276"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="113" t="e">
+      <c r="A31" s="117">
+        <f>Page1!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="118">
+        <f>Page1!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="119">
+        <f>Page1!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="197"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="113" t="e">
+      <c r="A32" s="117">
+        <f>Page1!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="118">
+        <f>Page1!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="119">
+        <f>Page1!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="197"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="276"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="113" t="e">
+      <c r="A33" s="117">
+        <f>Page1!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="118">
+        <f>Page1!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="119">
+        <f>Page1!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="197"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="276"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="113" t="e">
+      <c r="A34" s="117">
+        <f>Page1!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="118">
+        <f>Page1!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="119">
+        <f>Page1!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="197"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="276"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="113" t="e">
+      <c r="A35" s="117">
+        <f>Page1!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="118">
+        <f>Page1!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="119">
+        <f>Page1!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="197"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="276"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="113" t="e">
+      <c r="A36" s="117">
+        <f>Page1!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="118">
+        <f>Page1!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="119">
+        <f>Page1!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="197"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="276"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="113" t="e">
+      <c r="A37" s="117">
+        <f>Page1!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="118">
+        <f>Page1!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="119">
+        <f>Page1!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="197"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="276"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="85" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="113" t="e">
+    <row r="38" spans="1:15" s="129" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A38" s="117">
+        <f>Page1!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="118">
+        <f>Page1!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="119">
+        <f>Page1!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="220"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="222"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="222"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="216"/>
+      <c r="L38" s="278"/>
+      <c r="M38" s="279"/>
+      <c r="N38" s="279"/>
+      <c r="O38" s="277" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="85" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73" t="s">
+    <row r="39" spans="1:15" s="129" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A39" s="120"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="290" t="e">
+      <c r="D39" s="280" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="291"/>
-      <c r="F39" s="290" t="e">
+      <c r="E39" s="281"/>
+      <c r="F39" s="280" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="291"/>
-      <c r="H39" s="290" t="e">
+      <c r="G39" s="281"/>
+      <c r="H39" s="280" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="291"/>
-      <c r="J39" s="141" t="e">
+      <c r="I39" s="281"/>
+      <c r="J39" s="224" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="143"/>
-      <c r="L39" s="229" t="e">
+      <c r="K39" s="226"/>
+      <c r="L39" s="125" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="230"/>
-      <c r="N39" s="230"/>
-      <c r="O39" s="231"/>
-    </row>
-    <row r="40" spans="1:15" s="85" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76" t="s">
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="128"/>
+    </row>
+    <row r="40" spans="1:15" s="129" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A40" s="130"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="292">
+      <c r="D40" s="282">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="293"/>
-      <c r="F40" s="294">
+      <c r="E40" s="283"/>
+      <c r="F40" s="284">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="295"/>
-      <c r="H40" s="294">
+      <c r="G40" s="285"/>
+      <c r="H40" s="284">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="295"/>
-      <c r="J40" s="197">
+      <c r="I40" s="285"/>
+      <c r="J40" s="232">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="199"/>
-      <c r="L40" s="249" t="e">
+      <c r="K40" s="234"/>
+      <c r="L40" s="135" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="250"/>
-      <c r="N40" s="250"/>
-      <c r="O40" s="252"/>
-    </row>
-    <row r="41" spans="1:15" s="85" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79" t="s">
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="138"/>
+    </row>
+    <row r="41" spans="1:15" s="129" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A41" s="139"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="141" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="286">
@@ -11575,121 +12392,121 @@
         <v>0</v>
       </c>
       <c r="I41" s="289"/>
-      <c r="J41" s="204">
+      <c r="J41" s="240">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="206"/>
-      <c r="L41" s="232" t="e">
+      <c r="K41" s="242"/>
+      <c r="L41" s="145" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="233"/>
-      <c r="N41" s="233"/>
-      <c r="O41" s="234"/>
-    </row>
-    <row r="42" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="80" t="s">
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="148"/>
+    </row>
+    <row r="42" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="308"/>
-      <c r="C42" s="308"/>
-      <c r="D42" s="309" t="s">
+      <c r="B42" s="290"/>
+      <c r="C42" s="290"/>
+      <c r="D42" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="309"/>
-      <c r="F42" s="310"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="307"/>
-      <c r="K42" s="307"/>
-      <c r="L42" s="307" t="s">
+      <c r="E42" s="291"/>
+      <c r="F42" s="292"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="293"/>
+      <c r="K42" s="293"/>
+      <c r="L42" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="311"/>
-      <c r="N42" s="311"/>
-      <c r="O42" s="83" t="s">
+      <c r="M42" s="294"/>
+      <c r="N42" s="294"/>
+      <c r="O42" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="306"/>
-      <c r="M43" s="312"/>
-      <c r="N43" s="312"/>
-      <c r="O43" s="83"/>
-    </row>
-    <row r="44" spans="1:15" s="85" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="179" t="s">
+    <row r="43" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="149"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="295"/>
+      <c r="M43" s="296"/>
+      <c r="N43" s="296"/>
+      <c r="O43" s="71"/>
+    </row>
+    <row r="44" spans="1:15" s="129" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="80" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="179" t="s">
+      <c r="G44" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="304"/>
-      <c r="M44" s="304"/>
-      <c r="N44" s="304"/>
-      <c r="O44" s="82"/>
-    </row>
-    <row r="45" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="179" t="s">
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="158"/>
+      <c r="M44" s="158"/>
+      <c r="N44" s="158"/>
+      <c r="O44" s="153"/>
+    </row>
+    <row r="45" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="179"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="180" t="s">
+      <c r="B45" s="160"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="N45" s="180"/>
-      <c r="O45" s="82"/>
-    </row>
-    <row r="46" spans="1:15" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="179"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="180"/>
-      <c r="N46" s="180"/>
-      <c r="O46" s="82"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="153"/>
+    </row>
+    <row r="46" spans="1:15" s="156" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A46" s="160"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="171">
@@ -11813,7 +12630,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
@@ -11864,6 +12680,7 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="notBetween">
@@ -11902,7 +12719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B935AED-8764-4F37-A514-555EFCC30014}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -13575,14 +14392,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1">
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>

--- a/backend/templates/102-18c-white.xlsx
+++ b/backend/templates/102-18c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1611DF-DE7D-4324-94BA-D78AE5889E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56043199-FE7A-494D-8A88-BA8AC0808F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,7 +1343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1663,144 +1663,308 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1811,12 +1975,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,97 +2044,97 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2021,12 +2179,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2042,106 +2194,97 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2183,150 +2326,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2813,61 +2817,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="62" t="s">
         <v>20</v>
       </c>
@@ -2879,607 +2883,607 @@
       <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="97" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="101"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="156"/>
       <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="173" t="s">
+      <c r="J4" s="155"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="174"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="175"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="159"/>
     </row>
     <row r="5" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="99" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="102"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="214"/>
       <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="176"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="178" t="s">
+      <c r="J5" s="160"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="179"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="180"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="165"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="185"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="170"/>
     </row>
     <row r="7" spans="1:15" s="68" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="168" t="s">
+      <c r="A7" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="172" t="s">
+      <c r="H7" s="133"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="168" t="s">
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="169"/>
-      <c r="O7" s="190"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="134"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="138"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="123"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="142"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="114"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="138"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="114"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="138"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="123"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="142"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="114"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="138"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="114"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="138"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="138"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="142"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="114"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="138"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="114"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="138"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="123"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="142"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="114"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="138"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="114"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="138"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="123"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="142"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="114"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="138"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="114"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="138"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="72"/>
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="123"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="142"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="114"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="138"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="114"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="138"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="69"/>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="114"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="138"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="69"/>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="123"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="142"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="69"/>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="114"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="138"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="69"/>
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="114"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="138"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="69"/>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="123"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="142"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="69"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="114"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="138"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="69"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="114"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="138"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="69"/>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="123"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="142"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="69"/>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="114"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="138"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="69"/>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="133"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="184"/>
+      <c r="O37" s="185"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="47"/>
@@ -3487,30 +3491,30 @@
       <c r="C38" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="138" t="e">
+      <c r="D38" s="171" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="139"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="134" t="e">
+      <c r="E38" s="172"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="186" t="e">
         <f>AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="135"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="137" t="e">
+      <c r="H38" s="187"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189" t="e">
         <f>AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="138" t="e">
+      <c r="K38" s="189"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="171" t="e">
         <f>AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="139"/>
-      <c r="O38" s="140"/>
+      <c r="N38" s="172"/>
+      <c r="O38" s="190"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="50"/>
@@ -3518,30 +3522,30 @@
       <c r="C39" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="145">
+      <c r="D39" s="195">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="146"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="148">
+      <c r="E39" s="196"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="198">
         <f>MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="149"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151">
+      <c r="H39" s="199"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="201">
         <f>MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="145">
+      <c r="K39" s="201"/>
+      <c r="L39" s="201"/>
+      <c r="M39" s="195">
         <f>MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="146"/>
-      <c r="O39" s="160"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="210"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="52"/>
@@ -3549,60 +3553,60 @@
       <c r="C40" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="152">
+      <c r="D40" s="202">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="153"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="155">
+      <c r="E40" s="203"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="205">
         <f>MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="156"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="158">
+      <c r="H40" s="206"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208">
         <f>MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="152">
+      <c r="K40" s="208"/>
+      <c r="L40" s="208"/>
+      <c r="M40" s="202">
         <f>MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="153"/>
-      <c r="O40" s="159"/>
+      <c r="N40" s="203"/>
+      <c r="O40" s="209"/>
     </row>
     <row r="41" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="142" t="s">
+      <c r="B41" s="191"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="142"/>
+      <c r="E41" s="192"/>
       <c r="F41" s="56"/>
       <c r="G41" s="57"/>
       <c r="H41" s="57"/>
       <c r="I41" s="57"/>
-      <c r="J41" s="143" t="s">
+      <c r="J41" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="143"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
+      <c r="K41" s="193"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
       <c r="O41" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="55"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="55"/>
@@ -3611,40 +3615,40 @@
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="K42" s="26"/>
-      <c r="L42" s="104" t="s">
+      <c r="L42" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" s="49" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
       <c r="F43" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="105" t="s">
+      <c r="G43" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
       <c r="L43" s="57"/>
       <c r="M43" s="57"/>
       <c r="N43" s="57"/>
       <c r="O43" s="57"/>
     </row>
     <row r="44" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="105"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="55"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
@@ -3655,10 +3659,10 @@
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
-      <c r="M44" s="124" t="s">
+      <c r="M44" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="N44" s="124"/>
+      <c r="N44" s="176"/>
       <c r="O44" s="57"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3669,68 +3673,184 @@
       <c r="N51" s="75"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="162"/>
-      <c r="D75" s="162"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
       <c r="E75" s="68"/>
-      <c r="I75" s="162"/>
-      <c r="J75" s="162"/>
+      <c r="I75" s="146"/>
+      <c r="J75" s="146"/>
       <c r="K75" s="68"/>
-      <c r="L75" s="162"/>
-      <c r="M75" s="162"/>
-      <c r="N75" s="162"/>
-      <c r="O75" s="162"/>
+      <c r="L75" s="146"/>
+      <c r="M75" s="146"/>
+      <c r="N75" s="146"/>
+      <c r="O75" s="146"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="162"/>
-      <c r="D76" s="162"/>
-      <c r="E76" s="162"/>
-      <c r="F76" s="162"/>
-      <c r="I76" s="162"/>
-      <c r="J76" s="162"/>
+      <c r="C76" s="146"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="146"/>
+      <c r="I76" s="146"/>
+      <c r="J76" s="146"/>
       <c r="K76" s="68"/>
-      <c r="L76" s="162"/>
-      <c r="M76" s="162"/>
-      <c r="N76" s="162"/>
-      <c r="O76" s="162"/>
+      <c r="L76" s="146"/>
+      <c r="M76" s="146"/>
+      <c r="N76" s="146"/>
+      <c r="O76" s="146"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="162"/>
-      <c r="D77" s="162"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
       <c r="E77" s="68"/>
-      <c r="I77" s="162"/>
-      <c r="J77" s="162"/>
+      <c r="I77" s="146"/>
+      <c r="J77" s="146"/>
       <c r="K77" s="68"/>
-      <c r="L77" s="162"/>
-      <c r="M77" s="162"/>
-      <c r="N77" s="162"/>
-      <c r="O77" s="162"/>
+      <c r="L77" s="146"/>
+      <c r="M77" s="146"/>
+      <c r="N77" s="146"/>
+      <c r="O77" s="146"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="162"/>
-      <c r="D78" s="162"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -3755,141 +3875,25 @@
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D8:F37">
@@ -3940,61 +3944,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:15" s="24" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="226"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="25" t="s">
         <v>19</v>
       </c>
@@ -4006,126 +4010,126 @@
       <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="232">
+      <c r="B4" s="224">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="235" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="236">
+      <c r="F4" s="227"/>
+      <c r="G4" s="228">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="236"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="236">
+      <c r="J4" s="228">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="236"/>
-      <c r="L4" s="191" t="s">
+      <c r="K4" s="228"/>
+      <c r="L4" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="232">
+      <c r="M4" s="240"/>
+      <c r="N4" s="224">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="214">
+      <c r="B5" s="230">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="222" t="s">
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="214">
+      <c r="F5" s="232"/>
+      <c r="G5" s="230">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="214"/>
+      <c r="H5" s="230"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="214">
+      <c r="J5" s="230">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="214"/>
-      <c r="L5" s="193" t="s">
+      <c r="K5" s="230"/>
+      <c r="L5" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="194"/>
-      <c r="N5" s="176">
+      <c r="M5" s="242"/>
+      <c r="N5" s="160">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="221"/>
+      <c r="O5" s="231"/>
     </row>
     <row r="6" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219" t="s">
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="219"/>
-      <c r="O6" s="220"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="263"/>
     </row>
     <row r="7" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="227" t="s">
+      <c r="A7" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="176"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="228" t="s">
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="228" t="s">
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="231"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="223"/>
     </row>
     <row r="8" spans="1:15" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="217"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="183"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
       <c r="D8" s="33">
         <v>1</v>
       </c>
@@ -5219,27 +5223,27 @@
       <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="195" t="e">
+      <c r="D39" s="243" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="204" t="e">
+      <c r="E39" s="244"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="233" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="205"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="204" t="e">
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
+      <c r="K39" s="252"/>
+      <c r="L39" s="233" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="223"/>
+      <c r="M39" s="234"/>
+      <c r="N39" s="234"/>
+      <c r="O39" s="235"/>
     </row>
     <row r="40" spans="1:15" s="49" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="50"/>
@@ -5247,27 +5251,27 @@
       <c r="C40" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="198" t="e">
+      <c r="D40" s="246" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="199"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="207" t="e">
+      <c r="E40" s="247"/>
+      <c r="F40" s="247"/>
+      <c r="G40" s="248"/>
+      <c r="H40" s="253" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="207" t="e">
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="253" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="210"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="254"/>
+      <c r="O40" s="256"/>
     </row>
     <row r="41" spans="1:15" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -5275,38 +5279,38 @@
       <c r="C41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="201" t="e">
+      <c r="D41" s="249" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="211" t="e">
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="251"/>
+      <c r="H41" s="236" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="211" t="e">
+      <c r="I41" s="237"/>
+      <c r="J41" s="237"/>
+      <c r="K41" s="257"/>
+      <c r="L41" s="236" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="212"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="224"/>
+      <c r="M41" s="237"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="142" t="s">
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="142"/>
+      <c r="E42" s="192"/>
       <c r="F42" s="56"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
@@ -5316,16 +5320,16 @@
       <c r="L42" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="194"/>
       <c r="O42" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="55"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="55"/>
@@ -5335,28 +5339,28 @@
       <c r="J43" s="57"/>
       <c r="K43" s="26"/>
       <c r="L43" s="60"/>
-      <c r="M43" s="104" t="s">
+      <c r="M43" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="N43" s="104"/>
+      <c r="N43" s="216"/>
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" s="49" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="105" t="s">
+      <c r="G44" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
@@ -5365,10 +5369,10 @@
       <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="105"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="55"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -5379,10 +5383,10 @@
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
-      <c r="M45" s="124" t="s">
+      <c r="M45" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="N45" s="124"/>
+      <c r="N45" s="176"/>
       <c r="O45" s="57"/>
     </row>
     <row r="55" s="43" customFormat="1"/>
@@ -5402,6 +5406,30 @@
     <row r="69" s="43" customFormat="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="A1:M1"/>
@@ -5418,30 +5446,6 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
@@ -5483,61 +5487,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:17" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:17" s="24" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="226"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="25" t="s">
         <v>19</v>
       </c>
@@ -5549,126 +5553,126 @@
       <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="232">
+      <c r="B4" s="224">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="235" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="236">
+      <c r="F4" s="227"/>
+      <c r="G4" s="228">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="236"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="236">
+      <c r="J4" s="228">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="236"/>
-      <c r="L4" s="191" t="s">
+      <c r="K4" s="228"/>
+      <c r="L4" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="232">
+      <c r="M4" s="240"/>
+      <c r="N4" s="224">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:17" s="29" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="214">
+      <c r="B5" s="230">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="222" t="s">
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="214">
+      <c r="F5" s="232"/>
+      <c r="G5" s="230">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="214"/>
+      <c r="H5" s="230"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="214">
+      <c r="J5" s="230">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="214"/>
-      <c r="L5" s="193" t="s">
+      <c r="K5" s="230"/>
+      <c r="L5" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="194"/>
-      <c r="N5" s="176">
+      <c r="M5" s="242"/>
+      <c r="N5" s="160">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="221"/>
+      <c r="O5" s="231"/>
     </row>
     <row r="6" spans="1:17" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219" t="s">
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="219"/>
-      <c r="O6" s="220"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="263"/>
     </row>
     <row r="7" spans="1:17" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="227" t="s">
+      <c r="A7" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="176"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="228" t="s">
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="238" t="s">
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="239"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="240"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="266"/>
     </row>
     <row r="8" spans="1:17" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="217"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="183"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
       <c r="D8" s="33">
         <v>1</v>
       </c>
@@ -6765,27 +6769,27 @@
       <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="195" t="e">
+      <c r="D39" s="243" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="204" t="e">
+      <c r="E39" s="244"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="233" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="205"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="204" t="e">
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
+      <c r="K39" s="252"/>
+      <c r="L39" s="233" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="223"/>
+      <c r="M39" s="234"/>
+      <c r="N39" s="234"/>
+      <c r="O39" s="235"/>
     </row>
     <row r="40" spans="1:15" s="49" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="50"/>
@@ -6793,27 +6797,27 @@
       <c r="C40" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="198" t="e">
+      <c r="D40" s="246" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="199"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="207" t="e">
+      <c r="E40" s="247"/>
+      <c r="F40" s="247"/>
+      <c r="G40" s="248"/>
+      <c r="H40" s="253" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="207" t="e">
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="253" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="210"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="254"/>
+      <c r="O40" s="256"/>
     </row>
     <row r="41" spans="1:15" s="49" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -6821,38 +6825,38 @@
       <c r="C41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="201" t="e">
+      <c r="D41" s="249" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="211" t="e">
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="251"/>
+      <c r="H41" s="236" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="211" t="e">
+      <c r="I41" s="237"/>
+      <c r="J41" s="237"/>
+      <c r="K41" s="257"/>
+      <c r="L41" s="236" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="212"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="224"/>
+      <c r="M41" s="237"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="142" t="s">
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="142"/>
+      <c r="E42" s="192"/>
       <c r="F42" s="56"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
@@ -6862,16 +6866,16 @@
       <c r="L42" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="194"/>
       <c r="O42" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="55"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="55"/>
@@ -6881,28 +6885,28 @@
       <c r="J43" s="57"/>
       <c r="K43" s="26"/>
       <c r="L43" s="60"/>
-      <c r="M43" s="104" t="s">
+      <c r="M43" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="N43" s="104"/>
+      <c r="N43" s="216"/>
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" s="49" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="105" t="s">
+      <c r="G44" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
@@ -6911,10 +6915,10 @@
       <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="105"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="55"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -6925,15 +6929,15 @@
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
-      <c r="M45" s="124" t="s">
+      <c r="M45" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="N45" s="124"/>
+      <c r="N45" s="176"/>
       <c r="O45" s="57"/>
     </row>
     <row r="46" spans="1:15" s="59" customFormat="1" ht="15">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="175"/>
+      <c r="B46" s="175"/>
       <c r="C46" s="55"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
@@ -6944,12 +6948,38 @@
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
+      <c r="M46" s="176"/>
+      <c r="N46" s="176"/>
       <c r="O46" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B42:C42"/>
@@ -6966,32 +6996,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
@@ -7033,61 +7037,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="164" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="164"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="165" t="s">
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="165"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:15" s="24" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="226"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="25" t="s">
         <v>19</v>
       </c>
@@ -7099,140 +7103,140 @@
       <c r="A4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="232">
+      <c r="B4" s="224">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="235" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="236">
+      <c r="F4" s="227"/>
+      <c r="G4" s="228">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="236"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="236">
+      <c r="J4" s="228">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="236"/>
-      <c r="L4" s="191" t="s">
+      <c r="K4" s="228"/>
+      <c r="L4" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="232">
+      <c r="M4" s="240"/>
+      <c r="N4" s="224">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="68" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="214">
+      <c r="B5" s="230">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="222" t="s">
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="214">
+      <c r="F5" s="232"/>
+      <c r="G5" s="230">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="214"/>
+      <c r="H5" s="230"/>
       <c r="I5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="214">
+      <c r="J5" s="230">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="214"/>
-      <c r="L5" s="193" t="s">
+      <c r="K5" s="230"/>
+      <c r="L5" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="194"/>
-      <c r="N5" s="176">
+      <c r="M5" s="242"/>
+      <c r="N5" s="160">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="221"/>
+      <c r="O5" s="231"/>
     </row>
     <row r="6" spans="1:15" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="255"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="257" t="s">
+      <c r="B6" s="273"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="275" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="257" t="s">
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="275" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="255"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="258"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="273"/>
+      <c r="O6" s="276"/>
     </row>
     <row r="7" spans="1:15" s="49" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="259" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="260"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="262" t="s">
+      <c r="A7" s="277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="278"/>
+      <c r="C7" s="279"/>
+      <c r="D7" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="262" t="s">
+      <c r="E7" s="279"/>
+      <c r="F7" s="280" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="262" t="s">
+      <c r="G7" s="279"/>
+      <c r="H7" s="280" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="261"/>
-      <c r="J7" s="263" t="s">
+      <c r="I7" s="279"/>
+      <c r="J7" s="281" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="232" t="s">
+      <c r="K7" s="282"/>
+      <c r="L7" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="233"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="237"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="229"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="217"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="266"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="284"/>
       <c r="L8" s="78">
         <v>1</v>
       </c>
@@ -7288,14 +7292,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="188"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="125"/>
       <c r="L10" s="80"/>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
@@ -7317,14 +7321,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="188"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="125"/>
       <c r="L11" s="80"/>
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
@@ -7346,14 +7350,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="188"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="82"/>
       <c r="M12" s="83"/>
       <c r="N12" s="83"/>
@@ -7375,14 +7379,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="188"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="125"/>
       <c r="L13" s="80"/>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
@@ -7404,14 +7408,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="188"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="125"/>
       <c r="L14" s="80"/>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
@@ -7433,14 +7437,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="188"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="125"/>
       <c r="L15" s="80"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
@@ -7462,14 +7466,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="188"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="125"/>
       <c r="L16" s="80"/>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
@@ -7491,14 +7495,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="188"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="125"/>
       <c r="L17" s="80"/>
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
@@ -7520,14 +7524,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="188"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="125"/>
       <c r="L18" s="80"/>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
@@ -7549,14 +7553,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="188"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="125"/>
       <c r="L19" s="80"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
@@ -7578,14 +7582,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="188"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="125"/>
       <c r="L20" s="80"/>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
@@ -7607,14 +7611,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="188"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="125"/>
       <c r="L21" s="80"/>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -7636,14 +7640,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="188"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="125"/>
       <c r="L22" s="80"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -7665,14 +7669,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="188"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="80"/>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
@@ -7694,14 +7698,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="188"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="125"/>
       <c r="L24" s="80"/>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
@@ -7723,14 +7727,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="188"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="125"/>
       <c r="L25" s="82"/>
       <c r="M25" s="83"/>
       <c r="N25" s="83"/>
@@ -7752,14 +7756,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="188"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="125"/>
       <c r="L26" s="80"/>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -7781,14 +7785,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="109"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="188"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="125"/>
       <c r="L27" s="80"/>
       <c r="M27" s="40"/>
       <c r="N27" s="40"/>
@@ -7810,14 +7814,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="188"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="125"/>
       <c r="L28" s="80"/>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
@@ -7839,14 +7843,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="188"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="125"/>
       <c r="L29" s="80"/>
       <c r="M29" s="40"/>
       <c r="N29" s="40"/>
@@ -7868,14 +7872,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="188"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="125"/>
       <c r="L30" s="80"/>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -7897,14 +7901,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="109"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="188"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="125"/>
       <c r="L31" s="80"/>
       <c r="M31" s="40"/>
       <c r="N31" s="40"/>
@@ -7926,14 +7930,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="188"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="125"/>
       <c r="L32" s="80"/>
       <c r="M32" s="40"/>
       <c r="N32" s="40"/>
@@ -7955,14 +7959,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="109"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="188"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="125"/>
       <c r="L33" s="80"/>
       <c r="M33" s="40"/>
       <c r="N33" s="40"/>
@@ -7984,14 +7988,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="188"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="125"/>
       <c r="L34" s="80"/>
       <c r="M34" s="40"/>
       <c r="N34" s="40"/>
@@ -8013,14 +8017,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="109"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="188"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="125"/>
       <c r="L35" s="80"/>
       <c r="M35" s="40"/>
       <c r="N35" s="40"/>
@@ -8042,14 +8046,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="109"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="188"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="125"/>
       <c r="L36" s="80"/>
       <c r="M36" s="40"/>
       <c r="N36" s="40"/>
@@ -8071,14 +8075,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="109"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="188"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="125"/>
       <c r="L37" s="80"/>
       <c r="M37" s="40"/>
       <c r="N37" s="40"/>
@@ -8100,14 +8104,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="161"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="211"/>
       <c r="L38" s="82"/>
       <c r="M38" s="83"/>
       <c r="N38" s="83"/>
@@ -8122,33 +8126,33 @@
       <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="248" t="e">
+      <c r="D39" s="292" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="249"/>
-      <c r="F39" s="248" t="e">
+      <c r="E39" s="293"/>
+      <c r="F39" s="292" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="249"/>
-      <c r="H39" s="248" t="e">
+      <c r="G39" s="293"/>
+      <c r="H39" s="292" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="249"/>
-      <c r="J39" s="138" t="e">
+      <c r="I39" s="293"/>
+      <c r="J39" s="171" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="186"/>
-      <c r="L39" s="204" t="e">
+      <c r="K39" s="173"/>
+      <c r="L39" s="233" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="223"/>
+      <c r="M39" s="234"/>
+      <c r="N39" s="234"/>
+      <c r="O39" s="235"/>
     </row>
     <row r="40" spans="1:15" s="49" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="50"/>
@@ -8156,33 +8160,33 @@
       <c r="C40" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="250">
+      <c r="D40" s="294">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="251"/>
-      <c r="F40" s="252">
+      <c r="E40" s="295"/>
+      <c r="F40" s="296">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="253"/>
-      <c r="H40" s="252">
+      <c r="G40" s="297"/>
+      <c r="H40" s="296">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="253"/>
-      <c r="J40" s="145">
+      <c r="I40" s="297"/>
+      <c r="J40" s="195">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="147"/>
-      <c r="L40" s="207" t="e">
+      <c r="K40" s="197"/>
+      <c r="L40" s="253" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="210"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="254"/>
+      <c r="O40" s="256"/>
     </row>
     <row r="41" spans="1:15" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -8190,33 +8194,33 @@
       <c r="C41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="243">
+      <c r="D41" s="287">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="244"/>
-      <c r="F41" s="245">
+      <c r="E41" s="288"/>
+      <c r="F41" s="289">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="246"/>
-      <c r="H41" s="245">
+      <c r="G41" s="290"/>
+      <c r="H41" s="289">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="246"/>
-      <c r="J41" s="152">
+      <c r="I41" s="290"/>
+      <c r="J41" s="202">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="154"/>
-      <c r="L41" s="211" t="e">
+      <c r="K41" s="204"/>
+      <c r="L41" s="236" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="212"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="224"/>
+      <c r="M41" s="237"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="55" t="s">
@@ -8224,10 +8228,10 @@
       </c>
       <c r="B42" s="267"/>
       <c r="C42" s="267"/>
-      <c r="D42" s="247" t="s">
+      <c r="D42" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="247"/>
+      <c r="E42" s="291"/>
       <c r="F42" s="84"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
@@ -8237,16 +8241,16 @@
       <c r="L42" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="241"/>
-      <c r="N42" s="241"/>
+      <c r="M42" s="285"/>
+      <c r="N42" s="285"/>
       <c r="O42" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="55"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="55"/>
@@ -8256,28 +8260,28 @@
       <c r="J43" s="57"/>
       <c r="K43" s="26"/>
       <c r="L43" s="86"/>
-      <c r="M43" s="242" t="s">
+      <c r="M43" s="286" t="s">
         <v>144</v>
       </c>
-      <c r="N43" s="242"/>
+      <c r="N43" s="286"/>
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" s="49" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="105" t="s">
+      <c r="G44" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
       <c r="L44" s="60"/>
@@ -8286,10 +8290,10 @@
       <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="105"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="55"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -8300,15 +8304,15 @@
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
-      <c r="M45" s="124" t="s">
+      <c r="M45" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="N45" s="124"/>
+      <c r="N45" s="176"/>
       <c r="O45" s="57"/>
     </row>
     <row r="46" spans="1:15" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="175"/>
+      <c r="B46" s="175"/>
       <c r="C46" s="55"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
@@ -8319,12 +8323,159 @@
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
+      <c r="M46" s="176"/>
+      <c r="N46" s="176"/>
       <c r="O46" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="B42:C42"/>
@@ -8349,153 +8500,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="notBetween">
@@ -8535,11 +8539,12 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
@@ -8636,7 +8641,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="92"/>
+      <c r="A3" s="299"/>
       <c r="B3" s="93">
         <f>Page1!C8</f>
         <v>0</v>
@@ -8686,7 +8691,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="92"/>
+      <c r="A4" s="299"/>
       <c r="B4" s="93">
         <f>Page1!C9</f>
         <v>0</v>
@@ -8736,7 +8741,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="92"/>
+      <c r="A5" s="299"/>
       <c r="B5" s="93">
         <f>Page1!C10</f>
         <v>0</v>
@@ -8786,7 +8791,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="92"/>
+      <c r="A6" s="299"/>
       <c r="B6" s="93">
         <f>Page1!C11</f>
         <v>0</v>
@@ -8836,7 +8841,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="92"/>
+      <c r="A7" s="299"/>
       <c r="B7" s="93">
         <f>Page1!C12</f>
         <v>0</v>
@@ -8886,7 +8891,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="92"/>
+      <c r="A8" s="299"/>
       <c r="B8" s="93">
         <f>Page1!C13</f>
         <v>0</v>
@@ -8936,7 +8941,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="92"/>
+      <c r="A9" s="299"/>
       <c r="B9" s="93">
         <f>Page1!C14</f>
         <v>0</v>
@@ -8986,7 +8991,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="92"/>
+      <c r="A10" s="299"/>
       <c r="B10" s="93">
         <f>Page1!C15</f>
         <v>0</v>
@@ -9036,7 +9041,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="92"/>
+      <c r="A11" s="299"/>
       <c r="B11" s="93">
         <f>Page1!C16</f>
         <v>0</v>
@@ -9086,7 +9091,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="92"/>
+      <c r="A12" s="299"/>
       <c r="B12" s="93">
         <f>Page1!C17</f>
         <v>0</v>
@@ -9136,7 +9141,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="92"/>
+      <c r="A13" s="299"/>
       <c r="B13" s="93">
         <f>Page1!C18</f>
         <v>0</v>
@@ -9186,7 +9191,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="92"/>
+      <c r="A14" s="299"/>
       <c r="B14" s="93">
         <f>Page1!C19</f>
         <v>0</v>
@@ -9236,7 +9241,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="92"/>
+      <c r="A15" s="299"/>
       <c r="B15" s="93">
         <f>Page1!C20</f>
         <v>0</v>
@@ -9286,7 +9291,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="92"/>
+      <c r="A16" s="299"/>
       <c r="B16" s="93">
         <f>Page1!C21</f>
         <v>0</v>
@@ -9336,7 +9341,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="92"/>
+      <c r="A17" s="299"/>
       <c r="B17" s="93">
         <f>Page1!C22</f>
         <v>0</v>
@@ -9386,7 +9391,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="92"/>
+      <c r="A18" s="299"/>
       <c r="B18" s="93">
         <f>Page1!C23</f>
         <v>0</v>
@@ -9436,7 +9441,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="92"/>
+      <c r="A19" s="299"/>
       <c r="B19" s="93">
         <f>Page1!C24</f>
         <v>0</v>
@@ -9486,7 +9491,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="92"/>
+      <c r="A20" s="299"/>
       <c r="B20" s="93">
         <f>Page1!C25</f>
         <v>0</v>
@@ -9536,7 +9541,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="92"/>
+      <c r="A21" s="299"/>
       <c r="B21" s="93">
         <f>Page1!C26</f>
         <v>0</v>
@@ -9586,7 +9591,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="92"/>
+      <c r="A22" s="299"/>
       <c r="B22" s="93">
         <f>Page1!C27</f>
         <v>0</v>
@@ -9636,7 +9641,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="92"/>
+      <c r="A23" s="299"/>
       <c r="B23" s="93">
         <f>Page1!C28</f>
         <v>0</v>
@@ -9686,7 +9691,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="92"/>
+      <c r="A24" s="299"/>
       <c r="B24" s="93">
         <f>Page1!C29</f>
         <v>0</v>
@@ -9736,7 +9741,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="92"/>
+      <c r="A25" s="299"/>
       <c r="B25" s="93">
         <f>Page1!C30</f>
         <v>0</v>
@@ -9786,7 +9791,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="92"/>
+      <c r="A26" s="299"/>
       <c r="B26" s="93">
         <f>Page1!C31</f>
         <v>0</v>
@@ -9836,7 +9841,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="92"/>
+      <c r="A27" s="299"/>
       <c r="B27" s="93">
         <f>Page1!C32</f>
         <v>0</v>
@@ -9886,7 +9891,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="92"/>
+      <c r="A28" s="299"/>
       <c r="B28" s="93">
         <f>Page1!C33</f>
         <v>0</v>
@@ -9936,7 +9941,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="92"/>
+      <c r="A29" s="299"/>
       <c r="B29" s="93">
         <f>Page1!C34</f>
         <v>0</v>
@@ -9986,7 +9991,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="92"/>
+      <c r="A30" s="299"/>
       <c r="B30" s="93">
         <f>Page1!C35</f>
         <v>0</v>
@@ -10036,7 +10041,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="92"/>
+      <c r="A31" s="299"/>
       <c r="B31" s="93">
         <f>Page1!C36</f>
         <v>0</v>
@@ -10086,7 +10091,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="92"/>
+      <c r="A32" s="299"/>
       <c r="B32" s="93">
         <f>Page1!C37</f>
         <v>0</v>
@@ -10166,14 +10171,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="18" customHeight="1" thickBot="1">
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -10478,177 +10483,177 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="16"/>
     </row>
-    <row r="14" spans="1:49" s="277" customFormat="1" ht="24">
-      <c r="A14" s="274" t="s">
+    <row r="14" spans="1:49" s="101" customFormat="1" ht="24">
+      <c r="A14" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="274" t="s">
+      <c r="B14" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="274" t="s">
+      <c r="C14" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="274" t="s">
+      <c r="D14" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="274" t="s">
+      <c r="E14" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="274" t="s">
+      <c r="F14" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="274" t="s">
+      <c r="G14" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="274" t="s">
+      <c r="H14" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="274" t="s">
+      <c r="I14" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="274" t="s">
+      <c r="J14" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="274">
+      <c r="K14" s="98">
         <v>1</v>
       </c>
-      <c r="L14" s="274">
+      <c r="L14" s="98">
         <v>2</v>
       </c>
-      <c r="M14" s="274">
+      <c r="M14" s="98">
         <v>3</v>
       </c>
-      <c r="N14" s="274">
+      <c r="N14" s="98">
         <v>4</v>
       </c>
-      <c r="O14" s="274">
+      <c r="O14" s="98">
         <v>5</v>
       </c>
-      <c r="P14" s="274">
+      <c r="P14" s="98">
         <v>6</v>
       </c>
-      <c r="Q14" s="274">
+      <c r="Q14" s="98">
         <v>7</v>
       </c>
-      <c r="R14" s="274">
+      <c r="R14" s="98">
         <v>8</v>
       </c>
-      <c r="S14" s="274">
+      <c r="S14" s="98">
         <v>9</v>
       </c>
-      <c r="T14" s="274">
+      <c r="T14" s="98">
         <v>10</v>
       </c>
-      <c r="U14" s="274">
+      <c r="U14" s="98">
         <v>11</v>
       </c>
-      <c r="V14" s="274">
+      <c r="V14" s="98">
         <v>12</v>
       </c>
-      <c r="W14" s="274">
+      <c r="W14" s="98">
         <v>13</v>
       </c>
-      <c r="X14" s="274">
+      <c r="X14" s="98">
         <v>14</v>
       </c>
-      <c r="Y14" s="274">
+      <c r="Y14" s="98">
         <v>15</v>
       </c>
-      <c r="Z14" s="274">
+      <c r="Z14" s="98">
         <v>16</v>
       </c>
-      <c r="AA14" s="274">
+      <c r="AA14" s="98">
         <v>17</v>
       </c>
-      <c r="AB14" s="274">
+      <c r="AB14" s="98">
         <v>18</v>
       </c>
-      <c r="AC14" s="274">
+      <c r="AC14" s="98">
         <v>19</v>
       </c>
-      <c r="AD14" s="274">
+      <c r="AD14" s="98">
         <v>20</v>
       </c>
-      <c r="AE14" s="274">
+      <c r="AE14" s="98">
         <v>21</v>
       </c>
-      <c r="AF14" s="274">
+      <c r="AF14" s="98">
         <v>22</v>
       </c>
-      <c r="AG14" s="274">
+      <c r="AG14" s="98">
         <v>23</v>
       </c>
-      <c r="AH14" s="274">
+      <c r="AH14" s="98">
         <v>24</v>
       </c>
-      <c r="AI14" s="274">
+      <c r="AI14" s="98">
         <v>25</v>
       </c>
-      <c r="AJ14" s="274">
+      <c r="AJ14" s="98">
         <v>26</v>
       </c>
-      <c r="AK14" s="274">
+      <c r="AK14" s="98">
         <v>27</v>
       </c>
-      <c r="AL14" s="274">
+      <c r="AL14" s="98">
         <v>28</v>
       </c>
-      <c r="AM14" s="274">
+      <c r="AM14" s="98">
         <v>29</v>
       </c>
-      <c r="AN14" s="274">
+      <c r="AN14" s="98">
         <v>30</v>
       </c>
-      <c r="AO14" s="275" t="s">
+      <c r="AO14" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AP14" s="275" t="s">
+      <c r="AP14" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="AQ14" s="274" t="s">
+      <c r="AQ14" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="AR14" s="275" t="s">
+      <c r="AR14" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="AS14" s="275" t="s">
+      <c r="AS14" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="AT14" s="276" t="s">
+      <c r="AT14" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="AV14" s="278"/>
-      <c r="AW14" s="278"/>
-    </row>
-    <row r="15" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="279">
+      <c r="AV14" s="102"/>
+      <c r="AW14" s="102"/>
+    </row>
+    <row r="15" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="103">
         <v>1</v>
       </c>
-      <c r="B15" s="280" t="s">
+      <c r="B15" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="281" t="s">
+      <c r="C15" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="282" t="s">
+      <c r="D15" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="282">
+      <c r="E15" s="106">
         <v>1</v>
       </c>
-      <c r="F15" s="282">
+      <c r="F15" s="106">
         <v>0.01</v>
       </c>
-      <c r="G15" s="283" t="s">
+      <c r="G15" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="283" t="s">
+      <c r="H15" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="283" t="s">
+      <c r="I15" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="283">
+      <c r="J15" s="107">
         <v>1.33</v>
       </c>
       <c r="K15" s="87" cm="1">
@@ -10771,61 +10776,61 @@
         <f t="array" ref="AN15">INDEX(Page1!$D$8:$D$37, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="284">
+      <c r="AO15" s="108">
         <f t="shared" ref="AO15:AO29" si="0">AVERAGE(K15:AN15)</f>
         <v>0</v>
       </c>
-      <c r="AP15" s="285">
+      <c r="AP15" s="109">
         <f t="shared" ref="AP15:AP29" si="1">STDEV(K15:AN15)</f>
         <v>0</v>
       </c>
-      <c r="AQ15" s="286" t="e">
+      <c r="AQ15" s="110" t="e">
         <f>MIN((AO15-H15)/(3*AP15), (I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="285">
+      <c r="AR15" s="109">
         <f t="shared" ref="AR15:AR29" si="2">MIN(K15:AN15)</f>
         <v>0</v>
       </c>
-      <c r="AS15" s="285">
+      <c r="AS15" s="109">
         <f t="shared" ref="AS15:AS29" si="3">MAX(K15:AN15)</f>
         <v>0</v>
       </c>
-      <c r="AT15" s="273" t="e">
+      <c r="AT15" s="97" t="e">
         <f t="shared" ref="AT15:AT29" si="4">IF(AQ15&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU15" s="287"/>
-      <c r="AV15" s="288"/>
-      <c r="AW15" s="288"/>
-    </row>
-    <row r="16" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="279">
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="112"/>
+      <c r="AW15" s="112"/>
+    </row>
+    <row r="16" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="103">
         <v>2</v>
       </c>
-      <c r="B16" s="280" t="s">
+      <c r="B16" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="281" t="s">
+      <c r="C16" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="282" t="s">
+      <c r="D16" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="282">
+      <c r="E16" s="106">
         <v>3</v>
       </c>
-      <c r="F16" s="282">
+      <c r="F16" s="106">
         <v>0.1</v>
       </c>
-      <c r="G16" s="283" t="s">
+      <c r="G16" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="283">
+      <c r="H16" s="107">
         <v>9.5</v>
       </c>
-      <c r="I16" s="283"/>
-      <c r="J16" s="283">
+      <c r="I16" s="107"/>
+      <c r="J16" s="107">
         <v>1.33</v>
       </c>
       <c r="K16" s="89" t="e" cm="1">
@@ -10948,61 +10953,61 @@
         <f t="array" ref="AN16">INDEX(Page2!$K$9:$K$38, COLUMN(AN16)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO16" s="290" t="e">
+      <c r="AO16" s="114" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP16" s="285" t="e">
+      <c r="AP16" s="109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ16" s="286" t="e">
+      <c r="AQ16" s="110" t="e">
         <f>(AO16-H16)/(3*AP16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="291" t="e">
+      <c r="AR16" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS16" s="291" t="e">
+      <c r="AS16" s="115" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT16" s="273" t="e">
+      <c r="AT16" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU16" s="287"/>
-      <c r="AV16" s="288"/>
-      <c r="AW16" s="288"/>
-    </row>
-    <row r="17" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="279">
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="112"/>
+      <c r="AW16" s="112"/>
+    </row>
+    <row r="17" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="103">
         <v>3</v>
       </c>
-      <c r="B17" s="280" t="s">
+      <c r="B17" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="281" t="s">
+      <c r="C17" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="282" t="s">
+      <c r="D17" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="282">
+      <c r="E17" s="106">
         <v>3</v>
       </c>
-      <c r="F17" s="282">
+      <c r="F17" s="106">
         <v>0.1</v>
       </c>
-      <c r="G17" s="283">
+      <c r="G17" s="107">
         <v>9.5</v>
       </c>
-      <c r="H17" s="283">
+      <c r="H17" s="107">
         <v>6.5</v>
       </c>
-      <c r="I17" s="283"/>
-      <c r="J17" s="283">
+      <c r="I17" s="107"/>
+      <c r="J17" s="107">
         <v>1.33</v>
       </c>
       <c r="K17" s="89" t="e" cm="1">
@@ -11125,63 +11130,63 @@
         <f t="array" ref="AN17">INDEX(Page3!$K$9:$K$38, COLUMN(AN17)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO17" s="290" t="e">
+      <c r="AO17" s="114" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP17" s="285" t="e">
+      <c r="AP17" s="109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ17" s="286" t="e">
+      <c r="AQ17" s="110" t="e">
         <f>(AO17-H17)/(3*AP17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR17" s="291" t="e">
+      <c r="AR17" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS17" s="291" t="e">
+      <c r="AS17" s="115" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT17" s="273" t="e">
+      <c r="AT17" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU17" s="287"/>
-      <c r="AV17" s="288"/>
-      <c r="AW17" s="288"/>
-    </row>
-    <row r="18" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="279">
+      <c r="AU17" s="111"/>
+      <c r="AV17" s="112"/>
+      <c r="AW17" s="112"/>
+    </row>
+    <row r="18" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="103">
         <v>4</v>
       </c>
-      <c r="B18" s="280" t="s">
+      <c r="B18" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="281" t="s">
+      <c r="C18" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="282" t="s">
+      <c r="D18" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="282">
+      <c r="E18" s="106">
         <v>3</v>
       </c>
-      <c r="F18" s="282">
+      <c r="F18" s="106">
         <v>0.1</v>
       </c>
-      <c r="G18" s="283">
+      <c r="G18" s="107">
         <v>3.5</v>
       </c>
-      <c r="H18" s="283" t="s">
+      <c r="H18" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="283" t="s">
+      <c r="I18" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="283">
+      <c r="J18" s="107">
         <v>1.33</v>
       </c>
       <c r="K18" s="89" t="e" cm="1">
@@ -11304,61 +11309,61 @@
         <f t="array" ref="AN18">INDEX(Page2!$O$9:$O$38, COLUMN(AN18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO18" s="290" t="e">
+      <c r="AO18" s="114" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP18" s="285" t="e">
+      <c r="AP18" s="109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ18" s="286" t="e">
+      <c r="AQ18" s="110" t="e">
         <f>MIN((AO18-H18)/(3*AP18), (I18-AO18)/(3*AP18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR18" s="291" t="e">
+      <c r="AR18" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS18" s="291" t="e">
+      <c r="AS18" s="115" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT18" s="273" t="e">
+      <c r="AT18" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU18" s="287"/>
-      <c r="AV18" s="288"/>
-      <c r="AW18" s="288"/>
-    </row>
-    <row r="19" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="279">
+      <c r="AU18" s="111"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="112"/>
+    </row>
+    <row r="19" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="103">
         <v>5</v>
       </c>
-      <c r="B19" s="280" t="s">
+      <c r="B19" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="281" t="s">
+      <c r="C19" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="282" t="s">
+      <c r="D19" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="282">
+      <c r="E19" s="106">
         <v>3</v>
       </c>
-      <c r="F19" s="282">
+      <c r="F19" s="106">
         <v>1</v>
       </c>
-      <c r="G19" s="283">
+      <c r="G19" s="107">
         <v>450</v>
       </c>
-      <c r="H19" s="283">
+      <c r="H19" s="107">
         <v>350</v>
       </c>
-      <c r="I19" s="283"/>
-      <c r="J19" s="283">
+      <c r="I19" s="107"/>
+      <c r="J19" s="107">
         <v>1.33</v>
       </c>
       <c r="K19" s="90" t="e" cm="1">
@@ -11481,61 +11486,61 @@
         <f t="array" ref="AN19">INDEX(Page2!$G$9:$G$38, COLUMN(AN19)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO19" s="292" t="e">
+      <c r="AO19" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP19" s="285" t="e">
+      <c r="AP19" s="109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ19" s="286" t="e">
+      <c r="AQ19" s="110" t="e">
         <f>(AO19-H19)/(3*AP19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR19" s="293" t="e">
+      <c r="AR19" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS19" s="293" t="e">
+      <c r="AS19" s="117" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT19" s="273" t="e">
+      <c r="AT19" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU19" s="287"/>
-      <c r="AV19" s="288"/>
-      <c r="AW19" s="288"/>
-    </row>
-    <row r="20" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="279">
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="112"/>
+      <c r="AW19" s="112"/>
+    </row>
+    <row r="20" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="103">
         <v>6</v>
       </c>
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="281" t="s">
+      <c r="C20" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="282" t="s">
+      <c r="D20" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="282">
+      <c r="E20" s="106">
         <v>3</v>
       </c>
-      <c r="F20" s="282">
+      <c r="F20" s="106">
         <v>1</v>
       </c>
-      <c r="G20" s="283">
+      <c r="G20" s="107">
         <v>500</v>
       </c>
-      <c r="H20" s="283">
+      <c r="H20" s="107">
         <v>400</v>
       </c>
-      <c r="I20" s="283"/>
-      <c r="J20" s="283">
+      <c r="I20" s="107"/>
+      <c r="J20" s="107">
         <v>1.33</v>
       </c>
       <c r="K20" s="90" t="e" cm="1">
@@ -11658,63 +11663,63 @@
         <f t="array" ref="AN20">INDEX(Page3!$G$9:$G$38, COLUMN(AN20)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO20" s="292" t="e">
+      <c r="AO20" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP20" s="285" t="e">
+      <c r="AP20" s="109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ20" s="286" t="e">
+      <c r="AQ20" s="110" t="e">
         <f>(AO20-H20)/(3*AP20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR20" s="293" t="e">
+      <c r="AR20" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS20" s="293" t="e">
+      <c r="AS20" s="117" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT20" s="273" t="e">
+      <c r="AT20" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU20" s="287"/>
-      <c r="AV20" s="288"/>
-      <c r="AW20" s="288"/>
-    </row>
-    <row r="21" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="279">
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="112"/>
+      <c r="AW20" s="112"/>
+    </row>
+    <row r="21" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="103">
         <v>7</v>
       </c>
-      <c r="B21" s="280" t="s">
+      <c r="B21" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="281" t="s">
+      <c r="C21" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="282" t="s">
+      <c r="D21" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="282">
+      <c r="E21" s="106">
         <v>1</v>
       </c>
-      <c r="F21" s="282">
+      <c r="F21" s="106">
         <v>1E-3</v>
       </c>
-      <c r="G21" s="283" t="s">
+      <c r="G21" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="283" t="s">
+      <c r="H21" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="283">
+      <c r="I21" s="107">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J21" s="294" t="s">
+      <c r="J21" s="118" t="s">
         <v>82</v>
       </c>
       <c r="K21" s="88" cm="1">
@@ -11837,63 +11842,63 @@
         <f t="array" ref="AN21">INDEX(Page1!$G$8:$G$37, COLUMN(AN21)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="295">
+      <c r="AO21" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="296">
+      <c r="AP21" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="286" t="e">
+      <c r="AQ21" s="110" t="e">
         <f t="shared" ref="AQ21:AQ28" si="5">MIN((AO21-H21)/(3*AP21), (I21-AO21)/(3*AP21))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR21" s="296">
+      <c r="AR21" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS21" s="296">
+      <c r="AS21" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT21" s="273" t="e">
+      <c r="AT21" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU21" s="287"/>
-      <c r="AV21" s="288"/>
-      <c r="AW21" s="288"/>
-    </row>
-    <row r="22" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="279">
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="112"/>
+      <c r="AW21" s="112"/>
+    </row>
+    <row r="22" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="103">
         <v>8</v>
       </c>
-      <c r="B22" s="280" t="s">
+      <c r="B22" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="281" t="s">
+      <c r="C22" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="282" t="s">
+      <c r="D22" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="282">
+      <c r="E22" s="106">
         <v>3</v>
       </c>
-      <c r="F22" s="282">
+      <c r="F22" s="106">
         <v>0.1</v>
       </c>
-      <c r="G22" s="297">
+      <c r="G22" s="121">
         <v>25</v>
       </c>
-      <c r="H22" s="297">
+      <c r="H22" s="121">
         <v>15</v>
       </c>
-      <c r="I22" s="297">
+      <c r="I22" s="121">
         <v>35</v>
       </c>
-      <c r="J22" s="294" t="s">
+      <c r="J22" s="118" t="s">
         <v>82</v>
       </c>
       <c r="K22" s="89" t="e" cm="1">
@@ -12016,61 +12021,61 @@
         <f t="array" ref="AN22">INDEX(Page3!$O$9:$O$38, COLUMN(AN22)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO22" s="290" t="e">
+      <c r="AO22" s="114" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP22" s="296" t="e">
+      <c r="AP22" s="120" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ22" s="286" t="e">
+      <c r="AQ22" s="110" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR22" s="291" t="e">
+      <c r="AR22" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS22" s="291" t="e">
+      <c r="AS22" s="115" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT22" s="273" t="e">
+      <c r="AT22" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU22" s="287"/>
-      <c r="AV22" s="288"/>
-      <c r="AW22" s="288"/>
-    </row>
-    <row r="23" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="279">
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="112"/>
+    </row>
+    <row r="23" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="103">
         <v>9</v>
       </c>
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="281" t="s">
+      <c r="C23" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="298" t="s">
+      <c r="D23" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="282">
+      <c r="E23" s="106">
         <v>1</v>
       </c>
-      <c r="F23" s="282">
+      <c r="F23" s="106">
         <v>0.01</v>
       </c>
-      <c r="G23" s="283" t="s">
+      <c r="G23" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="283"/>
-      <c r="I23" s="283" t="s">
+      <c r="H23" s="107"/>
+      <c r="I23" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="283" t="s">
+      <c r="J23" s="107" t="s">
         <v>82</v>
       </c>
       <c r="K23" s="87" cm="1">
@@ -12193,61 +12198,61 @@
         <f t="array" ref="AN23">INDEX(Page4!$J$9:$J$38, COLUMN(AN23)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO23" s="284">
+      <c r="AO23" s="108">
         <f>AVERAGE(K23:AN23)</f>
         <v>0</v>
       </c>
-      <c r="AP23" s="285">
+      <c r="AP23" s="109">
         <f>STDEV(K23:AN23)</f>
         <v>0</v>
       </c>
-      <c r="AQ23" s="286" t="e">
+      <c r="AQ23" s="110" t="e">
         <f>MIN(I23-AO23)/(3*AP23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR23" s="285">
+      <c r="AR23" s="109">
         <f>MIN(K23:AN23)</f>
         <v>0</v>
       </c>
-      <c r="AS23" s="285">
+      <c r="AS23" s="109">
         <f>MAX(K23:AN23)</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="273" t="e">
+      <c r="AT23" s="97" t="e">
         <f>IF(AQ23&gt;=1.33,"Pass","Fail")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU23" s="287"/>
-      <c r="AV23" s="288"/>
-      <c r="AW23" s="288"/>
-    </row>
-    <row r="24" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="279">
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="112"/>
+      <c r="AW23" s="112"/>
+    </row>
+    <row r="24" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="103">
         <v>10</v>
       </c>
-      <c r="B24" s="280" t="s">
+      <c r="B24" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="281" t="s">
+      <c r="C24" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282">
+      <c r="D24" s="106"/>
+      <c r="E24" s="106">
         <v>1</v>
       </c>
-      <c r="F24" s="282">
+      <c r="F24" s="106">
         <v>0.01</v>
       </c>
-      <c r="G24" s="283" t="s">
+      <c r="G24" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="283" t="s">
+      <c r="H24" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="283" t="s">
+      <c r="I24" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="283">
+      <c r="J24" s="107">
         <v>1.33</v>
       </c>
       <c r="K24" s="87" cm="1">
@@ -12370,63 +12375,63 @@
         <f t="array" ref="AN24">INDEX(Page1!$M$8:$M$37, COLUMN(AN24)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO24" s="284">
+      <c r="AO24" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP24" s="285">
+      <c r="AP24" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ24" s="286" t="e">
+      <c r="AQ24" s="110" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR24" s="285">
+      <c r="AR24" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS24" s="285">
+      <c r="AS24" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT24" s="273" t="e">
+      <c r="AT24" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU24" s="287"/>
-      <c r="AV24" s="288"/>
-      <c r="AW24" s="288"/>
-    </row>
-    <row r="25" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="279">
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="112"/>
+    </row>
+    <row r="25" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="103">
         <v>11</v>
       </c>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="281" t="s">
+      <c r="C25" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="282" t="s">
+      <c r="D25" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="282">
+      <c r="E25" s="106">
         <v>1</v>
       </c>
-      <c r="F25" s="282">
+      <c r="F25" s="106">
         <v>0.1</v>
       </c>
-      <c r="G25" s="283" t="s">
+      <c r="G25" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="283" t="s">
+      <c r="H25" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="283" t="s">
+      <c r="I25" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="283" t="s">
+      <c r="J25" s="107" t="s">
         <v>82</v>
       </c>
       <c r="K25" s="89" cm="1">
@@ -12549,63 +12554,63 @@
         <f t="array" ref="AN25">INDEX(Page1!$J$8:$J$37, COLUMN(AN25)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="290">
+      <c r="AO25" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="285">
+      <c r="AP25" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ25" s="286" t="e">
+      <c r="AQ25" s="110" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR25" s="291">
+      <c r="AR25" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS25" s="291">
+      <c r="AS25" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="273" t="e">
+      <c r="AT25" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU25" s="287"/>
-      <c r="AV25" s="288"/>
-      <c r="AW25" s="288"/>
-    </row>
-    <row r="26" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="279">
+      <c r="AU25" s="111"/>
+      <c r="AV25" s="112"/>
+      <c r="AW25" s="112"/>
+    </row>
+    <row r="26" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="103">
         <v>12</v>
       </c>
-      <c r="B26" s="280" t="s">
+      <c r="B26" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="281" t="s">
+      <c r="C26" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="282" t="s">
+      <c r="D26" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="282">
+      <c r="E26" s="106">
         <v>1</v>
       </c>
-      <c r="F26" s="282">
+      <c r="F26" s="106">
         <v>0.1</v>
       </c>
-      <c r="G26" s="283">
+      <c r="G26" s="107">
         <v>94.6</v>
       </c>
-      <c r="H26" s="283">
+      <c r="H26" s="107">
         <v>90.6</v>
       </c>
-      <c r="I26" s="283">
+      <c r="I26" s="107">
         <v>98.6</v>
       </c>
-      <c r="J26" s="283" t="s">
+      <c r="J26" s="107" t="s">
         <v>82</v>
       </c>
       <c r="K26" s="89" cm="1">
@@ -12728,63 +12733,63 @@
         <f t="array" ref="AN26">INDEX(Page4!$D$9:$D$38, COLUMN(AN26)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="290">
+      <c r="AO26" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="285">
+      <c r="AP26" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="286" t="e">
+      <c r="AQ26" s="110" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR26" s="291">
+      <c r="AR26" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS26" s="291">
+      <c r="AS26" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT26" s="273" t="e">
+      <c r="AT26" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU26" s="287"/>
-      <c r="AV26" s="288"/>
-      <c r="AW26" s="288"/>
-    </row>
-    <row r="27" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="279">
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="112"/>
+      <c r="AW26" s="112"/>
+    </row>
+    <row r="27" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="103">
         <v>13</v>
       </c>
-      <c r="B27" s="280" t="s">
+      <c r="B27" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="281" t="s">
+      <c r="C27" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="282" t="s">
+      <c r="D27" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="282">
+      <c r="E27" s="106">
         <v>1</v>
       </c>
-      <c r="F27" s="282">
+      <c r="F27" s="106">
         <v>0.1</v>
       </c>
-      <c r="G27" s="283" t="s">
+      <c r="G27" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="283">
+      <c r="H27" s="107">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="I27" s="283">
+      <c r="I27" s="107">
         <v>2.9</v>
       </c>
-      <c r="J27" s="283" t="s">
+      <c r="J27" s="107" t="s">
         <v>82</v>
       </c>
       <c r="K27" s="89" cm="1">
@@ -12907,63 +12912,63 @@
         <f t="array" ref="AN27">INDEX(Page4!$F$9:$F$38, COLUMN(AN27)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="290">
+      <c r="AO27" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP27" s="285">
+      <c r="AP27" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ27" s="286" t="e">
+      <c r="AQ27" s="110" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR27" s="291">
+      <c r="AR27" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS27" s="291">
+      <c r="AS27" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT27" s="273" t="e">
+      <c r="AT27" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU27" s="287"/>
-      <c r="AV27" s="288"/>
-      <c r="AW27" s="288"/>
-    </row>
-    <row r="28" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="279">
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="112"/>
+      <c r="AW27" s="112"/>
+    </row>
+    <row r="28" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="103">
         <v>14</v>
       </c>
-      <c r="B28" s="280" t="s">
+      <c r="B28" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="282" t="s">
+      <c r="D28" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="282">
+      <c r="E28" s="106">
         <v>1</v>
       </c>
-      <c r="F28" s="282">
+      <c r="F28" s="106">
         <v>0.1</v>
       </c>
-      <c r="G28" s="283">
+      <c r="G28" s="107">
         <v>0.4</v>
       </c>
-      <c r="H28" s="283">
+      <c r="H28" s="107">
         <v>-3.6</v>
       </c>
-      <c r="I28" s="283">
+      <c r="I28" s="107">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J28" s="283" t="s">
+      <c r="J28" s="107" t="s">
         <v>82</v>
       </c>
       <c r="K28" s="89" cm="1">
@@ -13086,61 +13091,61 @@
         <f t="array" ref="AN28">INDEX(Page4!$H$9:$H$38, COLUMN(AN28)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO28" s="290">
+      <c r="AO28" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="285">
+      <c r="AP28" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="286" t="e">
+      <c r="AQ28" s="110" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR28" s="291">
+      <c r="AR28" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS28" s="291">
+      <c r="AS28" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT28" s="273" t="e">
+      <c r="AT28" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU28" s="287"/>
-      <c r="AV28" s="288"/>
-      <c r="AW28" s="288"/>
-    </row>
-    <row r="29" spans="1:49" s="289" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="279">
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="112"/>
+      <c r="AW28" s="112"/>
+    </row>
+    <row r="29" spans="1:49" s="113" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="103">
         <v>15</v>
       </c>
-      <c r="B29" s="280" t="s">
+      <c r="B29" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="281" t="s">
+      <c r="C29" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="298" t="s">
+      <c r="D29" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="282">
+      <c r="E29" s="106">
         <v>3</v>
       </c>
-      <c r="F29" s="282">
+      <c r="F29" s="106">
         <v>0.1</v>
       </c>
-      <c r="G29" s="283" t="s">
+      <c r="G29" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="283"/>
-      <c r="I29" s="283" t="s">
+      <c r="H29" s="107"/>
+      <c r="I29" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="283" t="s">
+      <c r="J29" s="107" t="s">
         <v>82</v>
       </c>
       <c r="K29" s="89" t="e" cm="1">
@@ -13263,33 +13268,33 @@
         <f t="array" ref="AN29">INDEX(Page4!$O$9:$O$38, COLUMN(AN29)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO29" s="290" t="e">
+      <c r="AO29" s="114" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP29" s="285" t="e">
+      <c r="AP29" s="109" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ29" s="286" t="e">
+      <c r="AQ29" s="110" t="e">
         <f>MIN(I29-AO29)/(3*AP29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR29" s="291" t="e">
+      <c r="AR29" s="115" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS29" s="291" t="e">
+      <c r="AS29" s="115" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT29" s="273" t="e">
+      <c r="AT29" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU29" s="287"/>
-      <c r="AV29" s="288"/>
-      <c r="AW29" s="288"/>
+      <c r="AU29" s="111"/>
+      <c r="AV29" s="112"/>
+      <c r="AW29" s="112"/>
     </row>
     <row r="30" spans="1:49">
       <c r="AV30" s="22"/>

--- a/backend/templates/102-18c-white.xlsx
+++ b/backend/templates/102-18c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56043199-FE7A-494D-8A88-BA8AC0808F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9028A1F-06D2-4983-A386-248EDB65E9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,11 +522,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000_ "/>
     <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="169" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -2329,7 +2330,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -8539,12 +8540,12 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
